--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -56,7 +56,7 @@
     <t>alliance文件夹内</t>
   </si>
   <si>
-    <t>控制联盟旗帜的颜色、图标等前端显示test2</t>
+    <t>控制联盟旗帜的颜色、图标等前端显示test2 -&gt; test1</t>
   </si>
   <si>
     <t>联盟相关</t>
@@ -2905,7 +2905,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2950,13 +2950,6 @@
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -3515,28 +3508,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3545,118 +3541,115 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -56,7 +56,7 @@
     <t>alliance文件夹内</t>
   </si>
   <si>
-    <t>控制联盟旗帜的颜色、图标等前端显示test2 -&gt; test1</t>
+    <t>控制联盟旗帜的颜色、图标等前端显示test2 -&gt; test1 -&gt; test1</t>
   </si>
   <si>
     <t>联盟相关</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -56,7 +56,7 @@
     <t>alliance文件夹内</t>
   </si>
   <si>
-    <t>控制联盟旗帜的颜色、图标等前端显示test2 -&gt; test1 -&gt; test1</t>
+    <t>控制联盟旗帜的颜色、图标等前端显示test2 -&gt; test1 -&gt; test1 -&gt; test1</t>
   </si>
   <si>
     <t>联盟相关</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -68,7 +68,7 @@
     <t>道具回收（特殊）</t>
   </si>
   <si>
-    <t>道具回收价格表，暂时不知道该道具的产销</t>
+    <t>道具回收价格表，暂时不知道该道具的产销-&gt;test2</t>
   </si>
   <si>
     <t>alliance</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -68,7 +68,7 @@
     <t>道具回收（特殊）</t>
   </si>
   <si>
-    <t>道具回收价格表，暂时不知道该道具的产销-&gt;test2</t>
+    <t>道具回收价格表，暂时不知道该道具的产销</t>
   </si>
   <si>
     <t>alliance</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -47,7 +47,7 @@
     <t>关联性</t>
   </si>
   <si>
-    <t>alliance_flag</t>
+    <t>alliance_flag test1</t>
   </si>
   <si>
     <t>联盟旗帜</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -47,7 +47,7 @@
     <t>关联性</t>
   </si>
   <si>
-    <t>alliance_flag test1</t>
+    <t>alliance_flag test11</t>
   </si>
   <si>
     <t>联盟旗帜</t>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -47,7 +47,7 @@
     <t>关联性</t>
   </si>
   <si>
-    <t>alliance_flag test11</t>
+    <t>alliance_flag test2</t>
   </si>
   <si>
     <t>联盟旗帜</t>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -62,7 +62,7 @@
     <t>联盟相关</t>
   </si>
   <si>
-    <t>item_recycle</t>
+    <t>item_recycle2</t>
   </si>
   <si>
     <t>道具回收（特殊）</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -71,7 +71,7 @@
     <t>道具回收价格表，暂时不知道该道具的产销</t>
   </si>
   <si>
-    <t>alliance</t>
+    <t>alliance test1</t>
   </si>
   <si>
     <t>联盟功能的特权限制</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="925">
   <si>
-    <t>序号</t>
+    <t>序号test1</t>
   </si>
   <si>
     <t>表名</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -32,7 +32,7 @@
     <t>序号test1</t>
   </si>
   <si>
-    <t>表名</t>
+    <t>表名test1</t>
   </si>
   <si>
     <t>中文概括</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -38,7 +38,7 @@
     <t>中文概括</t>
   </si>
   <si>
-    <t>主表</t>
+    <t>主表test1</t>
   </si>
   <si>
     <t>作用</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -35,10 +35,10 @@
     <t>表名test1</t>
   </si>
   <si>
-    <t>中文概括</t>
-  </si>
-  <si>
-    <t>主表test1</t>
+    <t>中文概括test2</t>
+  </si>
+  <si>
+    <t>主表</t>
   </si>
   <si>
     <t>作用</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="22470" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>主表test1</t>
   </si>
   <si>
-    <t>作用</t>
+    <t>作用test1</t>
   </si>
   <si>
     <t>关联性</t>
@@ -4069,8 +4069,8 @@
   <sheetPr/>
   <dimension ref="C3:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22470" windowHeight="7755"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>作用test1</t>
   </si>
   <si>
-    <t>关联性</t>
+    <t>关联性test1</t>
   </si>
   <si>
     <t>alliance_flag test2</t>
@@ -4070,7 +4070,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="926">
   <si>
     <t>序号test1</t>
   </si>
@@ -50,22 +50,25 @@
     <t>alliance_flag test2</t>
   </si>
   <si>
-    <t>联盟旗帜</t>
+    <t>联盟旗帜-ugit</t>
+  </si>
+  <si>
+    <t>alliance文件夹内-ugit</t>
+  </si>
+  <si>
+    <t>控制联盟旗帜的颜色、图标等前端显示test2 -&gt; test1 -&gt; test1 -&gt; test1</t>
+  </si>
+  <si>
+    <t>联盟相关</t>
+  </si>
+  <si>
+    <t>item_recycle2</t>
+  </si>
+  <si>
+    <t>道具回收（特殊）</t>
   </si>
   <si>
     <t>alliance文件夹内</t>
-  </si>
-  <si>
-    <t>控制联盟旗帜的颜色、图标等前端显示test2 -&gt; test1 -&gt; test1 -&gt; test1</t>
-  </si>
-  <si>
-    <t>联盟相关</t>
-  </si>
-  <si>
-    <t>item_recycle2</t>
-  </si>
-  <si>
-    <t>道具回收（特殊）</t>
   </si>
   <si>
     <t>道具回收价格表，暂时不知道该道具的产销</t>
@@ -4070,7 +4073,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -4135,10 +4138,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -4147,16 +4150,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>10</v>
@@ -4167,16 +4170,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>10</v>
@@ -4187,16 +4190,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>10</v>
@@ -4207,16 +4210,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>10</v>
@@ -4227,16 +4230,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>10</v>
@@ -4247,16 +4250,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>10</v>
@@ -4267,16 +4270,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>10</v>
@@ -4287,16 +4290,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>10</v>
@@ -4307,16 +4310,16 @@
         <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>10</v>
@@ -4327,16 +4330,16 @@
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>10</v>
@@ -4347,16 +4350,16 @@
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>10</v>
@@ -4367,16 +4370,16 @@
         <v>14</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>10</v>
@@ -4395,19 +4398,19 @@
         <v>15</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:8">
@@ -4415,19 +4418,19 @@
         <v>16</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:8">
@@ -4435,19 +4438,19 @@
         <v>17</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:8">
@@ -4455,19 +4458,19 @@
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="3:8">
@@ -4475,19 +4478,19 @@
         <v>19</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="3:8">
@@ -4495,19 +4498,19 @@
         <v>20</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="33" spans="3:8">
@@ -4515,19 +4518,19 @@
         <v>21</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:8">
@@ -4535,19 +4538,19 @@
         <v>22</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="3:8">
@@ -4555,19 +4558,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="3:8">
@@ -4575,19 +4578,19 @@
         <v>24</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="31.5" spans="3:8">
@@ -4595,19 +4598,19 @@
         <v>25</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="3:8">
@@ -4615,19 +4618,19 @@
         <v>26</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="3:8">
@@ -4635,19 +4638,19 @@
         <v>27</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="3:8">
@@ -4655,19 +4658,19 @@
         <v>28</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -4675,19 +4678,19 @@
         <v>29</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34" spans="3:8">
@@ -4695,19 +4698,19 @@
         <v>30</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="3:8">
@@ -4715,19 +4718,19 @@
         <v>31</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="3:8">
@@ -4735,19 +4738,19 @@
         <v>32</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="3:8">
@@ -4755,19 +4758,19 @@
         <v>33</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="3:8">
@@ -4775,19 +4778,19 @@
         <v>34</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="H38" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="3:8">
@@ -4795,19 +4798,19 @@
         <v>35</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="3:8">
@@ -4815,14 +4818,14 @@
         <v>36</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H40" s="17"/>
     </row>
@@ -4831,11 +4834,11 @@
         <v>37</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -4845,11 +4848,11 @@
         <v>38</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -4859,11 +4862,11 @@
         <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -4873,11 +4876,11 @@
         <v>40</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -4887,11 +4890,11 @@
         <v>41</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -4901,11 +4904,11 @@
         <v>42</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -4915,11 +4918,11 @@
         <v>43</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -4937,19 +4940,19 @@
         <v>44</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="3:8">
@@ -4957,17 +4960,17 @@
         <v>45</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="3:8">
@@ -4975,17 +4978,17 @@
         <v>46</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="3:8">
@@ -4993,17 +4996,17 @@
         <v>47</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="3:8">
@@ -5011,11 +5014,11 @@
         <v>48</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -5025,19 +5028,19 @@
         <v>49</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="3:8">
@@ -5045,13 +5048,13 @@
         <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -5061,16 +5064,16 @@
         <v>51</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H56" s="17"/>
     </row>
@@ -5079,16 +5082,16 @@
         <v>52</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H57" s="17"/>
     </row>
@@ -5097,13 +5100,13 @@
         <v>53</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -5113,16 +5116,16 @@
         <v>54</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H59" s="17"/>
     </row>
@@ -5131,11 +5134,11 @@
         <v>55</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -5145,11 +5148,11 @@
         <v>56</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -5159,16 +5162,16 @@
         <v>57</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H62" s="10"/>
     </row>
@@ -5177,17 +5180,17 @@
         <v>58</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="3:8">
@@ -5195,17 +5198,17 @@
         <v>59</v>
       </c>
       <c r="D64" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="3:8">
@@ -5213,17 +5216,17 @@
         <v>60</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="3:8">
@@ -5231,17 +5234,17 @@
         <v>61</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="3:8">
@@ -5249,17 +5252,17 @@
         <v>62</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="3:8">
@@ -5267,19 +5270,19 @@
         <v>63</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="3:8">
@@ -5287,12 +5290,12 @@
         <v>64</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H69" s="17"/>
     </row>
@@ -5301,12 +5304,12 @@
         <v>65</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H70" s="17"/>
     </row>
@@ -5315,14 +5318,14 @@
         <v>66</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H71" s="17"/>
     </row>
@@ -5331,14 +5334,14 @@
         <v>67</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H72" s="17"/>
     </row>
@@ -5347,14 +5350,14 @@
         <v>68</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H73" s="17"/>
     </row>
@@ -5363,14 +5366,14 @@
         <v>69</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H74" s="17"/>
     </row>
@@ -5379,19 +5382,19 @@
         <v>70</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="3:8">
@@ -5399,14 +5402,14 @@
         <v>71</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H76" s="17"/>
     </row>
@@ -5415,14 +5418,14 @@
         <v>72</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H77" s="17"/>
     </row>
@@ -5431,14 +5434,14 @@
         <v>73</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H78" s="17"/>
     </row>
@@ -5447,19 +5450,19 @@
         <v>74</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="3:8">
@@ -5467,19 +5470,19 @@
         <v>75</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="3:8">
@@ -5487,14 +5490,14 @@
         <v>76</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H81" s="17"/>
     </row>
@@ -5503,14 +5506,14 @@
         <v>77</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H82" s="17"/>
     </row>
@@ -5519,17 +5522,17 @@
         <v>78</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="3:8">
@@ -5537,19 +5540,19 @@
         <v>79</v>
       </c>
       <c r="D84" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F84" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>219</v>
-      </c>
       <c r="G84" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="3:8">
@@ -5557,19 +5560,19 @@
         <v>80</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="3:8">
@@ -5577,17 +5580,17 @@
         <v>81</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="3:8">
@@ -5595,19 +5598,19 @@
         <v>82</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="3:8">
@@ -5615,14 +5618,14 @@
         <v>83</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H88" s="17"/>
     </row>
@@ -5631,14 +5634,14 @@
         <v>84</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H89" s="17"/>
     </row>
@@ -5655,19 +5658,19 @@
         <v>85</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="3:8">
@@ -5675,19 +5678,19 @@
         <v>86</v>
       </c>
       <c r="D92" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H92" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="93" spans="3:8">
@@ -5695,17 +5698,17 @@
         <v>87</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="3:8">
@@ -5713,19 +5716,19 @@
         <v>88</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F94" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G94" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="H94" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="3:8">
@@ -5733,19 +5736,19 @@
         <v>89</v>
       </c>
       <c r="D95" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="G95" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="3:8">
@@ -5753,19 +5756,19 @@
         <v>90</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="3:8">
@@ -5773,19 +5776,19 @@
         <v>91</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="3:8">
@@ -5793,19 +5796,19 @@
         <v>92</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="3:8">
@@ -5813,16 +5816,16 @@
         <v>93</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H99" s="17"/>
     </row>
@@ -5831,19 +5834,19 @@
         <v>94</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="3:8">
@@ -5851,19 +5854,19 @@
         <v>95</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="3:8">
@@ -5871,17 +5874,17 @@
         <v>96</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="3:8">
@@ -5889,17 +5892,17 @@
         <v>97</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="3:8">
@@ -5907,19 +5910,19 @@
         <v>98</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="3:8">
@@ -5927,19 +5930,19 @@
         <v>99</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="3:8">
@@ -5955,19 +5958,19 @@
         <v>100</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F107" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G107" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G107" s="20" t="s">
-        <v>283</v>
-      </c>
       <c r="H107" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="3:8">
@@ -5975,17 +5978,17 @@
         <v>101</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="3:8">
@@ -5993,17 +5996,17 @@
         <v>102</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="3:8">
@@ -6011,17 +6014,17 @@
         <v>103</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="3:8">
@@ -6029,17 +6032,17 @@
         <v>104</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="3:8">
@@ -6047,17 +6050,17 @@
         <v>105</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="3:8">
@@ -6065,17 +6068,17 @@
         <v>106</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="3:8">
@@ -6083,17 +6086,17 @@
         <v>107</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="3:8">
@@ -6101,17 +6104,17 @@
         <v>108</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="3:8">
@@ -6119,17 +6122,17 @@
         <v>109</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="3:8">
@@ -6137,17 +6140,17 @@
         <v>110</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="3:8">
@@ -6163,19 +6166,19 @@
         <v>111</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="3:8">
@@ -6183,19 +6186,19 @@
         <v>112</v>
       </c>
       <c r="D120" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H120" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="121" spans="3:8">
@@ -6203,19 +6206,19 @@
         <v>113</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="3:8">
@@ -6223,19 +6226,19 @@
         <v>114</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="3:8">
@@ -6243,19 +6246,19 @@
         <v>115</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="3:8">
@@ -6263,19 +6266,19 @@
         <v>116</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="3:8">
@@ -6283,19 +6286,19 @@
         <v>117</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="126" spans="3:8">
@@ -6311,19 +6314,19 @@
         <v>118</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="128" spans="3:8">
@@ -6331,19 +6334,19 @@
         <v>119</v>
       </c>
       <c r="D128" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H128" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="129" spans="3:8">
@@ -6351,17 +6354,17 @@
         <v>120</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" spans="3:8">
@@ -6377,19 +6380,19 @@
         <v>121</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F131" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H131" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="132" spans="3:8">
@@ -6397,17 +6400,17 @@
         <v>122</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F132" s="10"/>
       <c r="G132" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" spans="3:8">
@@ -6415,19 +6418,19 @@
         <v>123</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="3:8">
@@ -6435,19 +6438,19 @@
         <v>124</v>
       </c>
       <c r="D134" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H134" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="135" spans="3:8">
@@ -6455,19 +6458,19 @@
         <v>125</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="3:8">
@@ -6475,19 +6478,19 @@
         <v>126</v>
       </c>
       <c r="D136" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="H136" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="137" spans="3:8">
@@ -6495,19 +6498,19 @@
         <v>127</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="138" spans="3:8">
@@ -6515,17 +6518,17 @@
         <v>128</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="139" spans="3:8">
@@ -6533,17 +6536,17 @@
         <v>129</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H139" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="140" spans="3:8">
@@ -6551,19 +6554,19 @@
         <v>130</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="3:8">
@@ -6571,17 +6574,17 @@
         <v>131</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="3:8">
@@ -6589,14 +6592,14 @@
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H142" s="17"/>
     </row>
@@ -6605,17 +6608,17 @@
         <v>133</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="3:8">
@@ -6623,17 +6626,17 @@
         <v>134</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="3:8">
@@ -6641,17 +6644,17 @@
         <v>135</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="3:8">
@@ -6659,17 +6662,17 @@
         <v>136</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="3:8">
@@ -6677,17 +6680,17 @@
         <v>137</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="3:8">
@@ -6695,17 +6698,17 @@
         <v>138</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="149" spans="3:8">
@@ -6713,19 +6716,19 @@
         <v>139</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="150" spans="3:8">
@@ -6733,19 +6736,19 @@
         <v>140</v>
       </c>
       <c r="D150" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H150" s="10" t="s">
         <v>403</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="151" spans="3:8">
@@ -6753,19 +6756,19 @@
         <v>141</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152" spans="3:8">
@@ -6773,19 +6776,19 @@
         <v>142</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="153" spans="3:8">
@@ -6793,19 +6796,19 @@
         <v>143</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="154" spans="3:8">
@@ -6813,17 +6816,17 @@
         <v>144</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="155" spans="3:8">
@@ -6831,17 +6834,17 @@
         <v>145</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="156" spans="3:8">
@@ -6849,19 +6852,19 @@
         <v>146</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="157" spans="3:8">
@@ -6869,19 +6872,19 @@
         <v>147</v>
       </c>
       <c r="D157" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="H157" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="E157" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="H157" s="10" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="158" spans="3:8">
@@ -6889,19 +6892,19 @@
         <v>148</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="3:8">
@@ -6909,14 +6912,14 @@
         <v>149</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H159" s="17"/>
     </row>
@@ -6925,14 +6928,14 @@
         <v>150</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H160" s="17"/>
     </row>
@@ -6941,15 +6944,15 @@
         <v>151</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="3:8">
@@ -6957,15 +6960,15 @@
         <v>152</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
       <c r="G162" s="17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="3:8">
@@ -6973,17 +6976,17 @@
         <v>153</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E163" s="17"/>
       <c r="F163" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="3:8">
@@ -6991,19 +6994,19 @@
         <v>154</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H164" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="3:8">
@@ -7011,17 +7014,17 @@
         <v>155</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E165" s="17"/>
       <c r="F165" s="17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="3:8">
@@ -7029,17 +7032,17 @@
         <v>156</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="3:8">
@@ -7047,15 +7050,15 @@
         <v>157</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="3:8">
@@ -7063,19 +7066,19 @@
         <v>158</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H168" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="3:8">
@@ -7083,19 +7086,19 @@
         <v>159</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H169" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="170" spans="3:8">
@@ -7103,19 +7106,19 @@
         <v>160</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H170" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="171" spans="3:8">
@@ -7123,17 +7126,17 @@
         <v>161</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H171" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="3:8">
@@ -7141,17 +7144,17 @@
         <v>162</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E172" s="17"/>
       <c r="F172" s="17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" spans="3:8">
@@ -7159,19 +7162,19 @@
         <v>163</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H173" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="3:8">
@@ -7179,19 +7182,19 @@
         <v>164</v>
       </c>
       <c r="D174" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F174" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="H174" s="20" t="s">
         <v>474</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="F174" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="G174" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="H174" s="20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="175" spans="3:8">
@@ -7199,17 +7202,17 @@
         <v>165</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F175" s="17"/>
       <c r="G175" s="17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="3:8">
@@ -7217,10 +7220,10 @@
         <v>166</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
@@ -7231,17 +7234,17 @@
         <v>167</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H177" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="3:8">
@@ -7249,17 +7252,17 @@
         <v>168</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H178" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="179" spans="3:8">
@@ -7267,19 +7270,19 @@
         <v>169</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H179" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="180" spans="3:8">
@@ -7287,19 +7290,19 @@
         <v>170</v>
       </c>
       <c r="D180" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="G180" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="H180" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="F180" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="H180" s="10" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="181" spans="3:8">
@@ -7307,19 +7310,19 @@
         <v>171</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H181" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" ht="33" spans="3:8">
@@ -7327,19 +7330,19 @@
         <v>172</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H182" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="183" spans="3:8">
@@ -7347,19 +7350,19 @@
         <v>173</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H183" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="184" spans="3:8">
@@ -7367,19 +7370,19 @@
         <v>174</v>
       </c>
       <c r="D184" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="H184" s="10" t="s">
         <v>509</v>
-      </c>
-      <c r="E184" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="F184" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="H184" s="10" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="185" spans="3:8">
@@ -7387,19 +7390,19 @@
         <v>175</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="186" spans="3:8">
@@ -7407,17 +7410,17 @@
         <v>176</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="3:8">
@@ -7425,17 +7428,17 @@
         <v>177</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G187" s="10"/>
       <c r="H187" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="188" spans="3:8">
@@ -7443,17 +7446,17 @@
         <v>178</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H188" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="3:8">
@@ -7461,17 +7464,17 @@
         <v>179</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H189" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="190" spans="3:8">
@@ -7479,17 +7482,17 @@
         <v>180</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H190" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="3:8">
@@ -7497,19 +7500,19 @@
         <v>181</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H191" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="192" spans="3:8">
@@ -7517,19 +7520,19 @@
         <v>182</v>
       </c>
       <c r="D192" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="G192" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H192" s="10" t="s">
         <v>534</v>
-      </c>
-      <c r="E192" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="F192" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="G192" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="H192" s="10" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="193" spans="3:8">
@@ -7537,19 +7540,19 @@
         <v>183</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H193" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="194" spans="3:8">
@@ -7557,17 +7560,17 @@
         <v>184</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H194" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="195" spans="3:8">
@@ -7575,17 +7578,17 @@
         <v>185</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H195" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="196" spans="3:8">
@@ -7593,17 +7596,17 @@
         <v>186</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F196" s="10"/>
       <c r="G196" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H196" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="3:8">
@@ -7611,19 +7614,19 @@
         <v>187</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H197" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="198" spans="3:8">
@@ -7631,19 +7634,19 @@
         <v>188</v>
       </c>
       <c r="D198" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="G198" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="H198" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="E198" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="F198" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="G198" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="H198" s="10" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="199" spans="3:8">
@@ -7651,19 +7654,19 @@
         <v>189</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H199" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="3:8">
@@ -7671,19 +7674,19 @@
         <v>190</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H200" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="201" spans="3:8">
@@ -7691,19 +7694,19 @@
         <v>191</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H201" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="202" spans="3:8">
@@ -7711,19 +7714,19 @@
         <v>192</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H202" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="3:8">
@@ -7731,19 +7734,19 @@
         <v>193</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H203" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="204" spans="3:8">
@@ -7751,14 +7754,14 @@
         <v>194</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F204" s="10"/>
       <c r="G204" s="15" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H204" s="10"/>
     </row>
@@ -7767,17 +7770,17 @@
         <v>195</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F205" s="10"/>
       <c r="G205" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H205" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206" spans="3:8">
@@ -7785,17 +7788,17 @@
         <v>196</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H206" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="207" spans="3:8">
@@ -7803,17 +7806,17 @@
         <v>197</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H207" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="208" spans="3:8">
@@ -7821,19 +7824,19 @@
         <v>198</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H208" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="209" spans="3:8">
@@ -7841,19 +7844,19 @@
         <v>199</v>
       </c>
       <c r="D209" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="F209" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G209" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="H209" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="F209" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="G209" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="H209" s="10" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="210" spans="3:8">
@@ -7861,17 +7864,17 @@
         <v>200</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H210" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211" spans="3:8">
@@ -7879,19 +7882,19 @@
         <v>201</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H211" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="212" spans="3:8">
@@ -7899,19 +7902,19 @@
         <v>202</v>
       </c>
       <c r="D212" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="G212" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="H212" s="14" t="s">
         <v>601</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="F212" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="G212" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="H212" s="14" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="213" spans="3:8">
@@ -7919,17 +7922,17 @@
         <v>203</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E213" s="17"/>
       <c r="F213" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G213" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H213" s="29" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="214" spans="3:8">
@@ -7937,17 +7940,17 @@
         <v>204</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E214" s="17"/>
       <c r="F214" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H214" s="29" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="215" spans="3:8">
@@ -7955,19 +7958,19 @@
         <v>205</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H215" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="216" spans="3:8">
@@ -7975,19 +7978,19 @@
         <v>206</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H216" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="217" spans="3:8">
@@ -7995,19 +7998,19 @@
         <v>207</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H217" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="218" spans="3:8">
@@ -8015,19 +8018,19 @@
         <v>208</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H218" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="219" spans="3:8">
@@ -8035,19 +8038,19 @@
         <v>209</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H219" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="220" spans="3:8">
@@ -8055,19 +8058,19 @@
         <v>210</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H220" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="221" spans="3:8">
@@ -8075,19 +8078,19 @@
         <v>211</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H221" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="222" spans="3:8">
@@ -8095,19 +8098,19 @@
         <v>212</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H222" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="223" spans="3:8">
@@ -8115,17 +8118,17 @@
         <v>213</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F223" s="10"/>
       <c r="G223" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H223" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="224" spans="3:8">
@@ -8133,17 +8136,17 @@
         <v>214</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F224" s="10"/>
       <c r="G224" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H224" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="225" spans="3:8">
@@ -8151,16 +8154,16 @@
         <v>215</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H225" s="10"/>
     </row>
@@ -8169,16 +8172,16 @@
         <v>216</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H226" s="10"/>
     </row>
@@ -8187,14 +8190,14 @@
         <v>217</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H227" s="10"/>
     </row>
@@ -8203,19 +8206,19 @@
         <v>218</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H228" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="229" spans="3:8">
@@ -8223,19 +8226,19 @@
         <v>219</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H229" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="230" spans="3:8">
@@ -8243,19 +8246,19 @@
         <v>220</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F230" s="17" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H230" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="231" spans="3:8">
@@ -8263,19 +8266,19 @@
         <v>221</v>
       </c>
       <c r="D231" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="E231" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="F231" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="G231" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="E231" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="F231" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="G231" s="17" t="s">
-        <v>661</v>
-      </c>
       <c r="H231" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="3:8">
@@ -8283,19 +8286,19 @@
         <v>222</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H232" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="233" spans="3:8">
@@ -8303,14 +8306,14 @@
         <v>223</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F233" s="10"/>
       <c r="G233" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H233" s="10"/>
     </row>
@@ -8319,19 +8322,19 @@
         <v>224</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H234" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="235" spans="3:8">
@@ -8339,17 +8342,17 @@
         <v>225</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F235" s="17" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G235" s="17"/>
       <c r="H235" s="17" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="236" spans="3:8">
@@ -8357,14 +8360,14 @@
         <v>226</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F236" s="10"/>
       <c r="G236" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H236" s="10"/>
     </row>
@@ -8373,10 +8376,10 @@
         <v>227</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F237" s="10"/>
       <c r="G237" s="10"/>
@@ -8387,14 +8390,14 @@
         <v>228</v>
       </c>
       <c r="D238" s="31" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E238" s="31"/>
       <c r="F238" s="31" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G238" s="31" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H238" s="31"/>
     </row>
@@ -8403,11 +8406,11 @@
         <v>229</v>
       </c>
       <c r="D239" s="31" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E239" s="31"/>
       <c r="F239" s="31" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G239" s="31"/>
       <c r="H239" s="31"/>
@@ -8417,19 +8420,19 @@
         <v>230</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F240" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="G240" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="G240" s="10" t="s">
-        <v>686</v>
-      </c>
       <c r="H240" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="241" spans="3:8">
@@ -8437,19 +8440,19 @@
         <v>231</v>
       </c>
       <c r="D241" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="G241" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H241" s="10" t="s">
         <v>689</v>
-      </c>
-      <c r="E241" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="F241" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="G241" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="H241" s="10" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="242" spans="3:8">
@@ -8457,14 +8460,14 @@
         <v>232</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E242" s="17"/>
       <c r="F242" s="17" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H242" s="17"/>
     </row>
@@ -8473,12 +8476,12 @@
         <v>233</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E243" s="17"/>
       <c r="F243" s="17"/>
       <c r="G243" s="17" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H243" s="17"/>
     </row>
@@ -8487,19 +8490,19 @@
         <v>234</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G244" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H244" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="245" spans="3:8">
@@ -8507,19 +8510,19 @@
         <v>235</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H245" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="246" spans="3:8">
@@ -8527,19 +8530,19 @@
         <v>236</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H246" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="247" spans="3:8">
@@ -8547,17 +8550,17 @@
         <v>237</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E247" s="17"/>
       <c r="F247" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H247" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="248" spans="3:8">
@@ -8565,15 +8568,15 @@
         <v>238</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E248" s="17"/>
       <c r="F248" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G248" s="17"/>
       <c r="H248" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="249" spans="3:8">
@@ -8581,17 +8584,17 @@
         <v>239</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F249" s="10"/>
       <c r="G249" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H249" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="250" spans="3:8">
@@ -8599,19 +8602,19 @@
         <v>240</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H250" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="251" spans="3:8">
@@ -8619,19 +8622,19 @@
         <v>241</v>
       </c>
       <c r="D251" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="F251" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="G251" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="H251" s="10" t="s">
         <v>718</v>
-      </c>
-      <c r="E251" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="F251" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="G251" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="H251" s="10" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="252" spans="3:8">
@@ -8639,19 +8642,19 @@
         <v>242</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H252" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="253" spans="3:8">
@@ -8659,19 +8662,19 @@
         <v>243</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F253" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G253" s="17" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H253" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="254" spans="3:8">
@@ -8679,19 +8682,19 @@
         <v>244</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F254" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H254" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="255" spans="3:8">
@@ -8699,17 +8702,17 @@
         <v>245</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E255" s="17"/>
       <c r="F255" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H255" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="256" spans="3:8">
@@ -8717,19 +8720,19 @@
         <v>246</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H256" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="257" spans="3:8">
@@ -8737,19 +8740,19 @@
         <v>247</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F257" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="G257" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="H257" s="10" t="s">
         <v>737</v>
-      </c>
-      <c r="G257" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="H257" s="10" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="258" spans="3:8">
@@ -8757,19 +8760,19 @@
         <v>248</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F258" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="G258" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="H258" s="10" t="s">
         <v>737</v>
-      </c>
-      <c r="G258" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="H258" s="10" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="259" spans="3:8">
@@ -8777,17 +8780,17 @@
         <v>249</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G259" s="10"/>
       <c r="H259" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="260" spans="3:8">
@@ -8795,19 +8798,19 @@
         <v>250</v>
       </c>
       <c r="D260" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="F260" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="E260" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="F260" s="10" t="s">
-        <v>744</v>
-      </c>
       <c r="G260" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H260" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="261" spans="3:8">
@@ -8815,19 +8818,19 @@
         <v>251</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H261" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="262" spans="3:8">
@@ -8835,19 +8838,19 @@
         <v>252</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G262" s="17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H262" s="17" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="263" spans="3:8">
@@ -8855,19 +8858,19 @@
         <v>253</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H263" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="3:8">
@@ -8875,19 +8878,19 @@
         <v>254</v>
       </c>
       <c r="D264" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="F264" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="G264" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="E264" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="F264" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="G264" s="10" t="s">
-        <v>756</v>
-      </c>
       <c r="H264" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="3:8">
@@ -8895,19 +8898,19 @@
         <v>255</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H265" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="3:8">
@@ -8915,19 +8918,19 @@
         <v>256</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H266" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="267" spans="3:8">
@@ -8935,19 +8938,19 @@
         <v>257</v>
       </c>
       <c r="D267" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="E267" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="F267" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="G267" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="H267" s="10" t="s">
         <v>764</v>
-      </c>
-      <c r="E267" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="F267" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="G267" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="H267" s="10" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="268" spans="3:8">
@@ -8955,19 +8958,19 @@
         <v>258</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H268" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="269" spans="3:8">
@@ -8975,19 +8978,19 @@
         <v>259</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F269" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H269" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="270" spans="3:8">
@@ -8995,16 +8998,16 @@
         <v>260</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F270" s="17" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G270" s="17" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H270" s="17"/>
     </row>
@@ -9013,19 +9016,19 @@
         <v>261</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H271" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="272" spans="3:8">
@@ -9033,14 +9036,14 @@
         <v>262</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G272" s="17" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H272" s="17"/>
     </row>
@@ -9049,17 +9052,17 @@
         <v>263</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F273" s="10"/>
       <c r="G273" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H273" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="274" spans="3:8">
@@ -9067,14 +9070,14 @@
         <v>264</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F274" s="17"/>
       <c r="G274" s="17" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H274" s="17"/>
     </row>
@@ -9083,14 +9086,14 @@
         <v>265</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F275" s="17"/>
       <c r="G275" s="17" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H275" s="17"/>
     </row>
@@ -9099,19 +9102,19 @@
         <v>266</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F276" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="G276" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="G276" s="10" t="s">
-        <v>790</v>
-      </c>
       <c r="H276" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="277" spans="3:8">
@@ -9119,19 +9122,19 @@
         <v>267</v>
       </c>
       <c r="D277" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="F277" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="H277" s="10" t="s">
         <v>793</v>
-      </c>
-      <c r="E277" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="F277" s="10" t="s">
-        <v>791</v>
-      </c>
-      <c r="G277" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="H277" s="10" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="278" spans="3:8">
@@ -9139,17 +9142,17 @@
         <v>268</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F278" s="10"/>
       <c r="G278" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="H278" s="10" t="s">
         <v>798</v>
-      </c>
-      <c r="H278" s="10" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="279" spans="3:8">
@@ -9157,17 +9160,17 @@
         <v>269</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H279" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="280" spans="3:8">
@@ -9175,19 +9178,19 @@
         <v>270</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F280" s="10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G280" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H280" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="281" spans="3:8">
@@ -9195,19 +9198,19 @@
         <v>271</v>
       </c>
       <c r="D281" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="F281" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="G281" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="H281" s="10" t="s">
         <v>808</v>
-      </c>
-      <c r="E281" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="F281" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="G281" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="H281" s="10" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="282" spans="3:8">
@@ -9215,17 +9218,17 @@
         <v>272</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F282" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G282" s="10"/>
       <c r="H282" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="283" spans="3:8">
@@ -9233,17 +9236,17 @@
         <v>273</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F283" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G283" s="10"/>
       <c r="H283" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="284" spans="3:8">
@@ -9251,12 +9254,12 @@
         <v>274</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
       <c r="G284" s="17" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H284" s="17"/>
     </row>
@@ -9265,17 +9268,17 @@
         <v>275</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F285" s="10"/>
       <c r="G285" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H285" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="286" spans="3:8">
@@ -9283,17 +9286,17 @@
         <v>276</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F286" s="10"/>
       <c r="G286" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H286" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="287" spans="3:8">
@@ -9301,19 +9304,19 @@
         <v>277</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G287" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H287" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="288" spans="3:8">
@@ -9321,17 +9324,17 @@
         <v>278</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E288" s="10"/>
       <c r="F288" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H288" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="289" spans="3:8">
@@ -9339,19 +9342,19 @@
         <v>279</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H289" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="290" spans="3:8">
@@ -9359,19 +9362,19 @@
         <v>280</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F290" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H290" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="291" spans="3:8">
@@ -9379,19 +9382,19 @@
         <v>281</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F291" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H291" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="292" spans="3:8">
@@ -9399,17 +9402,17 @@
         <v>282</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E292" s="17" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F292" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G292" s="17"/>
       <c r="H292" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="293" spans="3:8">
@@ -9417,17 +9420,17 @@
         <v>283</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E293" s="17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G293" s="17"/>
       <c r="H293" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="294" spans="3:8">
@@ -9435,17 +9438,17 @@
         <v>284</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E294" s="17" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F294" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G294" s="17"/>
       <c r="H294" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="295" spans="3:8">
@@ -9453,14 +9456,14 @@
         <v>285</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E295" s="17"/>
       <c r="F295" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G295" s="17" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H295" s="17"/>
     </row>
@@ -9469,11 +9472,11 @@
         <v>286</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E296" s="17"/>
       <c r="F296" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G296" s="17"/>
       <c r="H296" s="17"/>
@@ -9483,11 +9486,11 @@
         <v>287</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E297" s="17"/>
       <c r="F297" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G297" s="17"/>
       <c r="H297" s="17"/>
@@ -9497,19 +9500,19 @@
         <v>288</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F298" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G298" s="10" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H298" s="10" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="299" spans="3:8">
@@ -9517,19 +9520,19 @@
         <v>289</v>
       </c>
       <c r="D299" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="F299" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="G299" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="H299" s="10" t="s">
         <v>860</v>
-      </c>
-      <c r="E299" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="F299" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="G299" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="H299" s="10" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="300" spans="3:8">
@@ -9537,19 +9540,19 @@
         <v>290</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F300" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G300" s="10" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H300" s="10" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="301" spans="3:8">
@@ -9557,17 +9560,17 @@
         <v>291</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F301" s="10"/>
       <c r="G301" s="10" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H301" s="10" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="302" spans="3:8">
@@ -9575,15 +9578,15 @@
         <v>292</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E302" s="17"/>
       <c r="F302" s="17"/>
       <c r="G302" s="17" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H302" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="303" spans="3:8">
@@ -9591,19 +9594,19 @@
         <v>293</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F303" s="10" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G303" s="10" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H303" s="10" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="304" spans="3:8">
@@ -9611,19 +9614,19 @@
         <v>294</v>
       </c>
       <c r="D304" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="E304" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="F304" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="G304" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="H304" s="10" t="s">
         <v>877</v>
-      </c>
-      <c r="E304" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="F304" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="G304" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="H304" s="10" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="305" spans="3:8">
@@ -9631,19 +9634,19 @@
         <v>295</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F305" s="10" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H305" s="10" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="306" spans="3:8">
@@ -9651,19 +9654,19 @@
         <v>296</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F306" s="10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G306" s="10" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H306" s="10" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="307" spans="3:8">
@@ -9671,19 +9674,19 @@
         <v>297</v>
       </c>
       <c r="D307" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="F307" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="G307" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="H307" s="10" t="s">
         <v>888</v>
-      </c>
-      <c r="E307" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="F307" s="10" t="s">
-        <v>885</v>
-      </c>
-      <c r="G307" s="10" t="s">
-        <v>890</v>
-      </c>
-      <c r="H307" s="10" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="308" spans="3:8">
@@ -9691,14 +9694,14 @@
         <v>298</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E308" s="17" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F308" s="17"/>
       <c r="G308" s="17" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H308" s="17"/>
     </row>
@@ -9707,19 +9710,19 @@
         <v>299</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F309" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H309" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="310" spans="3:8">
@@ -9727,19 +9730,19 @@
         <v>300</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F310" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G310" s="10" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H310" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="311" spans="3:8">
@@ -9747,19 +9750,19 @@
         <v>301</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F311" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G311" s="10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H311" s="10" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="312" spans="3:8">
@@ -9767,19 +9770,19 @@
         <v>302</v>
       </c>
       <c r="D312" s="10" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F312" s="10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G312" s="10" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H312" s="10" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="313" spans="3:8">
@@ -9787,19 +9790,19 @@
         <v>303</v>
       </c>
       <c r="D313" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="F313" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="G313" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="H313" s="10" t="s">
         <v>911</v>
-      </c>
-      <c r="E313" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="F313" s="10" t="s">
-        <v>908</v>
-      </c>
-      <c r="G313" s="10" t="s">
-        <v>913</v>
-      </c>
-      <c r="H313" s="10" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="314" spans="3:8">
@@ -9807,19 +9810,19 @@
         <v>304</v>
       </c>
       <c r="D314" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G314" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H314" s="10" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="315" ht="33" spans="3:8">
@@ -9827,19 +9830,19 @@
         <v>305</v>
       </c>
       <c r="D315" s="10" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F315" s="10" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G315" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H315" s="10" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="316" spans="3:8">
@@ -9847,19 +9850,19 @@
         <v>306</v>
       </c>
       <c r="D316" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="F316" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="G316" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="H316" s="10" t="s">
         <v>922</v>
-      </c>
-      <c r="E316" s="10" t="s">
-        <v>923</v>
-      </c>
-      <c r="F316" s="10" t="s">
-        <v>919</v>
-      </c>
-      <c r="G316" s="10" t="s">
-        <v>924</v>
-      </c>
-      <c r="H316" s="10" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="926">
   <si>
     <t>序号test1</t>
   </si>
@@ -53,19 +53,22 @@
     <t>联盟旗帜</t>
   </si>
   <si>
+    <t>alliance文件夹内-fork</t>
+  </si>
+  <si>
+    <t>控制联盟旗帜的颜色、图标等前端显示test2 -&gt; test1 -&gt; test1 -&gt; test1</t>
+  </si>
+  <si>
+    <t>联盟相关</t>
+  </si>
+  <si>
+    <t>item_recycle2</t>
+  </si>
+  <si>
+    <t>道具回收（特殊）-fork</t>
+  </si>
+  <si>
     <t>alliance文件夹内</t>
-  </si>
-  <si>
-    <t>控制联盟旗帜的颜色、图标等前端显示test2 -&gt; test1 -&gt; test1 -&gt; test1</t>
-  </si>
-  <si>
-    <t>联盟相关</t>
-  </si>
-  <si>
-    <t>item_recycle2</t>
-  </si>
-  <si>
-    <t>道具回收（特殊）</t>
   </si>
   <si>
     <t>道具回收价格表，暂时不知道该道具的产销</t>
@@ -4070,7 +4073,7 @@
   <dimension ref="C3:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -4135,10 +4138,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -4147,16 +4150,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>10</v>
@@ -4167,16 +4170,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>10</v>
@@ -4187,16 +4190,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>10</v>
@@ -4207,16 +4210,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>10</v>
@@ -4227,16 +4230,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>10</v>
@@ -4247,16 +4250,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>10</v>
@@ -4267,16 +4270,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>10</v>
@@ -4287,16 +4290,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>10</v>
@@ -4307,16 +4310,16 @@
         <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>10</v>
@@ -4327,16 +4330,16 @@
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>10</v>
@@ -4347,16 +4350,16 @@
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>10</v>
@@ -4367,16 +4370,16 @@
         <v>14</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>10</v>
@@ -4395,19 +4398,19 @@
         <v>15</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:8">
@@ -4415,19 +4418,19 @@
         <v>16</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:8">
@@ -4435,19 +4438,19 @@
         <v>17</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:8">
@@ -4455,19 +4458,19 @@
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="3:8">
@@ -4475,19 +4478,19 @@
         <v>19</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="3:8">
@@ -4495,19 +4498,19 @@
         <v>20</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="33" spans="3:8">
@@ -4515,19 +4518,19 @@
         <v>21</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:8">
@@ -4535,19 +4538,19 @@
         <v>22</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="3:8">
@@ -4555,19 +4558,19 @@
         <v>23</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="3:8">
@@ -4575,19 +4578,19 @@
         <v>24</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="31.5" spans="3:8">
@@ -4595,19 +4598,19 @@
         <v>25</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="3:8">
@@ -4615,19 +4618,19 @@
         <v>26</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="3:8">
@@ -4635,19 +4638,19 @@
         <v>27</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="3:8">
@@ -4655,19 +4658,19 @@
         <v>28</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -4675,19 +4678,19 @@
         <v>29</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34" spans="3:8">
@@ -4695,19 +4698,19 @@
         <v>30</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="3:8">
@@ -4715,19 +4718,19 @@
         <v>31</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="3:8">
@@ -4735,19 +4738,19 @@
         <v>32</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="3:8">
@@ -4755,19 +4758,19 @@
         <v>33</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="3:8">
@@ -4775,19 +4778,19 @@
         <v>34</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="H38" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="3:8">
@@ -4795,19 +4798,19 @@
         <v>35</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="3:8">
@@ -4815,14 +4818,14 @@
         <v>36</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H40" s="17"/>
     </row>
@@ -4831,11 +4834,11 @@
         <v>37</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -4845,11 +4848,11 @@
         <v>38</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -4859,11 +4862,11 @@
         <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -4873,11 +4876,11 @@
         <v>40</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -4887,11 +4890,11 @@
         <v>41</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -4901,11 +4904,11 @@
         <v>42</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -4915,11 +4918,11 @@
         <v>43</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -4937,19 +4940,19 @@
         <v>44</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="3:8">
@@ -4957,17 +4960,17 @@
         <v>45</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="3:8">
@@ -4975,17 +4978,17 @@
         <v>46</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="3:8">
@@ -4993,17 +4996,17 @@
         <v>47</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="3:8">
@@ -5011,11 +5014,11 @@
         <v>48</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -5025,19 +5028,19 @@
         <v>49</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="3:8">
@@ -5045,13 +5048,13 @@
         <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -5061,16 +5064,16 @@
         <v>51</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H56" s="17"/>
     </row>
@@ -5079,16 +5082,16 @@
         <v>52</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H57" s="17"/>
     </row>
@@ -5097,13 +5100,13 @@
         <v>53</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -5113,16 +5116,16 @@
         <v>54</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H59" s="17"/>
     </row>
@@ -5131,11 +5134,11 @@
         <v>55</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -5145,11 +5148,11 @@
         <v>56</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -5159,16 +5162,16 @@
         <v>57</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H62" s="10"/>
     </row>
@@ -5177,17 +5180,17 @@
         <v>58</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="3:8">
@@ -5195,17 +5198,17 @@
         <v>59</v>
       </c>
       <c r="D64" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="3:8">
@@ -5213,17 +5216,17 @@
         <v>60</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="3:8">
@@ -5231,17 +5234,17 @@
         <v>61</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="3:8">
@@ -5249,17 +5252,17 @@
         <v>62</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="3:8">
@@ -5267,19 +5270,19 @@
         <v>63</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="3:8">
@@ -5287,12 +5290,12 @@
         <v>64</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H69" s="17"/>
     </row>
@@ -5301,12 +5304,12 @@
         <v>65</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H70" s="17"/>
     </row>
@@ -5315,14 +5318,14 @@
         <v>66</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H71" s="17"/>
     </row>
@@ -5331,14 +5334,14 @@
         <v>67</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H72" s="17"/>
     </row>
@@ -5347,14 +5350,14 @@
         <v>68</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H73" s="17"/>
     </row>
@@ -5363,14 +5366,14 @@
         <v>69</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H74" s="17"/>
     </row>
@@ -5379,19 +5382,19 @@
         <v>70</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="3:8">
@@ -5399,14 +5402,14 @@
         <v>71</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H76" s="17"/>
     </row>
@@ -5415,14 +5418,14 @@
         <v>72</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H77" s="17"/>
     </row>
@@ -5431,14 +5434,14 @@
         <v>73</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H78" s="17"/>
     </row>
@@ -5447,19 +5450,19 @@
         <v>74</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="3:8">
@@ -5467,19 +5470,19 @@
         <v>75</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="3:8">
@@ -5487,14 +5490,14 @@
         <v>76</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H81" s="17"/>
     </row>
@@ -5503,14 +5506,14 @@
         <v>77</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H82" s="17"/>
     </row>
@@ -5519,17 +5522,17 @@
         <v>78</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="3:8">
@@ -5537,19 +5540,19 @@
         <v>79</v>
       </c>
       <c r="D84" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F84" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>219</v>
-      </c>
       <c r="G84" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="3:8">
@@ -5557,19 +5560,19 @@
         <v>80</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="3:8">
@@ -5577,17 +5580,17 @@
         <v>81</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="3:8">
@@ -5595,19 +5598,19 @@
         <v>82</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="3:8">
@@ -5615,14 +5618,14 @@
         <v>83</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H88" s="17"/>
     </row>
@@ -5631,14 +5634,14 @@
         <v>84</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H89" s="17"/>
     </row>
@@ -5655,19 +5658,19 @@
         <v>85</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="3:8">
@@ -5675,19 +5678,19 @@
         <v>86</v>
       </c>
       <c r="D92" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H92" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="93" spans="3:8">
@@ -5695,17 +5698,17 @@
         <v>87</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G93" s="10"/>
       <c r="H93" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="3:8">
@@ -5713,19 +5716,19 @@
         <v>88</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F94" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G94" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="H94" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="3:8">
@@ -5733,19 +5736,19 @@
         <v>89</v>
       </c>
       <c r="D95" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="G95" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="3:8">
@@ -5753,19 +5756,19 @@
         <v>90</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="3:8">
@@ -5773,19 +5776,19 @@
         <v>91</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="3:8">
@@ -5793,19 +5796,19 @@
         <v>92</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="3:8">
@@ -5813,16 +5816,16 @@
         <v>93</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H99" s="17"/>
     </row>
@@ -5831,19 +5834,19 @@
         <v>94</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="3:8">
@@ -5851,19 +5854,19 @@
         <v>95</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="3:8">
@@ -5871,17 +5874,17 @@
         <v>96</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="3:8">
@@ -5889,17 +5892,17 @@
         <v>97</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="3:8">
@@ -5907,19 +5910,19 @@
         <v>98</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="3:8">
@@ -5927,19 +5930,19 @@
         <v>99</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="3:8">
@@ -5955,19 +5958,19 @@
         <v>100</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F107" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G107" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G107" s="20" t="s">
-        <v>283</v>
-      </c>
       <c r="H107" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="3:8">
@@ -5975,17 +5978,17 @@
         <v>101</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G108" s="10"/>
       <c r="H108" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="3:8">
@@ -5993,17 +5996,17 @@
         <v>102</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="3:8">
@@ -6011,17 +6014,17 @@
         <v>103</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="3:8">
@@ -6029,17 +6032,17 @@
         <v>104</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="3:8">
@@ -6047,17 +6050,17 @@
         <v>105</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G112" s="10"/>
       <c r="H112" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="3:8">
@@ -6065,17 +6068,17 @@
         <v>106</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="3:8">
@@ -6083,17 +6086,17 @@
         <v>107</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="3:8">
@@ -6101,17 +6104,17 @@
         <v>108</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="3:8">
@@ -6119,17 +6122,17 @@
         <v>109</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G116" s="10"/>
       <c r="H116" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="3:8">
@@ -6137,17 +6140,17 @@
         <v>110</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="3:8">
@@ -6163,19 +6166,19 @@
         <v>111</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="3:8">
@@ -6183,19 +6186,19 @@
         <v>112</v>
       </c>
       <c r="D120" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H120" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="121" spans="3:8">
@@ -6203,19 +6206,19 @@
         <v>113</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="3:8">
@@ -6223,19 +6226,19 @@
         <v>114</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="3:8">
@@ -6243,19 +6246,19 @@
         <v>115</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="3:8">
@@ -6263,19 +6266,19 @@
         <v>116</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="3:8">
@@ -6283,19 +6286,19 @@
         <v>117</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="126" spans="3:8">
@@ -6311,19 +6314,19 @@
         <v>118</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="128" spans="3:8">
@@ -6331,19 +6334,19 @@
         <v>119</v>
       </c>
       <c r="D128" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H128" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="129" spans="3:8">
@@ -6351,17 +6354,17 @@
         <v>120</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G129" s="10"/>
       <c r="H129" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" spans="3:8">
@@ -6377,19 +6380,19 @@
         <v>121</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F131" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H131" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="132" spans="3:8">
@@ -6397,17 +6400,17 @@
         <v>122</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F132" s="10"/>
       <c r="G132" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" spans="3:8">
@@ -6415,19 +6418,19 @@
         <v>123</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="3:8">
@@ -6435,19 +6438,19 @@
         <v>124</v>
       </c>
       <c r="D134" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H134" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="F134" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="135" spans="3:8">
@@ -6455,19 +6458,19 @@
         <v>125</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="3:8">
@@ -6475,19 +6478,19 @@
         <v>126</v>
       </c>
       <c r="D136" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="H136" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="F136" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="137" spans="3:8">
@@ -6495,19 +6498,19 @@
         <v>127</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="138" spans="3:8">
@@ -6515,17 +6518,17 @@
         <v>128</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="139" spans="3:8">
@@ -6533,17 +6536,17 @@
         <v>129</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H139" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="140" spans="3:8">
@@ -6551,19 +6554,19 @@
         <v>130</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="3:8">
@@ -6571,17 +6574,17 @@
         <v>131</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="3:8">
@@ -6589,14 +6592,14 @@
         <v>132</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H142" s="17"/>
     </row>
@@ -6605,17 +6608,17 @@
         <v>133</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="3:8">
@@ -6623,17 +6626,17 @@
         <v>134</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="3:8">
@@ -6641,17 +6644,17 @@
         <v>135</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="3:8">
@@ -6659,17 +6662,17 @@
         <v>136</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="3:8">
@@ -6677,17 +6680,17 @@
         <v>137</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="3:8">
@@ -6695,17 +6698,17 @@
         <v>138</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="149" spans="3:8">
@@ -6713,19 +6716,19 @@
         <v>139</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="150" spans="3:8">
@@ -6733,19 +6736,19 @@
         <v>140</v>
       </c>
       <c r="D150" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H150" s="10" t="s">
         <v>403</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="151" spans="3:8">
@@ -6753,19 +6756,19 @@
         <v>141</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152" spans="3:8">
@@ -6773,19 +6776,19 @@
         <v>142</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="153" spans="3:8">
@@ -6793,19 +6796,19 @@
         <v>143</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="154" spans="3:8">
@@ -6813,17 +6816,17 @@
         <v>144</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="155" spans="3:8">
@@ -6831,17 +6834,17 @@
         <v>145</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="156" spans="3:8">
@@ -6849,19 +6852,19 @@
         <v>146</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="157" spans="3:8">
@@ -6869,19 +6872,19 @@
         <v>147</v>
       </c>
       <c r="D157" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="H157" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="E157" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="H157" s="10" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="158" spans="3:8">
@@ -6889,19 +6892,19 @@
         <v>148</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="3:8">
@@ -6909,14 +6912,14 @@
         <v>149</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H159" s="17"/>
     </row>
@@ -6925,14 +6928,14 @@
         <v>150</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H160" s="17"/>
     </row>
@@ -6941,15 +6944,15 @@
         <v>151</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="3:8">
@@ -6957,15 +6960,15 @@
         <v>152</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
       <c r="G162" s="17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="3:8">
@@ -6973,17 +6976,17 @@
         <v>153</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E163" s="17"/>
       <c r="F163" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="3:8">
@@ -6991,19 +6994,19 @@
         <v>154</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H164" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="3:8">
@@ -7011,17 +7014,17 @@
         <v>155</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E165" s="17"/>
       <c r="F165" s="17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G165" s="17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="3:8">
@@ -7029,17 +7032,17 @@
         <v>156</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="3:8">
@@ -7047,15 +7050,15 @@
         <v>157</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="3:8">
@@ -7063,19 +7066,19 @@
         <v>158</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H168" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="3:8">
@@ -7083,19 +7086,19 @@
         <v>159</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H169" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="170" spans="3:8">
@@ -7103,19 +7106,19 @@
         <v>160</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H170" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="171" spans="3:8">
@@ -7123,17 +7126,17 @@
         <v>161</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H171" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="3:8">
@@ -7141,17 +7144,17 @@
         <v>162</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E172" s="17"/>
       <c r="F172" s="17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" spans="3:8">
@@ -7159,19 +7162,19 @@
         <v>163</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E173" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H173" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="3:8">
@@ -7179,19 +7182,19 @@
         <v>164</v>
       </c>
       <c r="D174" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F174" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="H174" s="20" t="s">
         <v>474</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="F174" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="G174" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="H174" s="20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="175" spans="3:8">
@@ -7199,17 +7202,17 @@
         <v>165</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F175" s="17"/>
       <c r="G175" s="17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="3:8">
@@ -7217,10 +7220,10 @@
         <v>166</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
@@ -7231,17 +7234,17 @@
         <v>167</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H177" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="3:8">
@@ -7249,17 +7252,17 @@
         <v>168</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H178" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="179" spans="3:8">
@@ -7267,19 +7270,19 @@
         <v>169</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H179" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="180" spans="3:8">
@@ -7287,19 +7290,19 @@
         <v>170</v>
       </c>
       <c r="D180" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="G180" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="H180" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="F180" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="H180" s="10" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="181" spans="3:8">
@@ -7307,19 +7310,19 @@
         <v>171</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H181" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" ht="33" spans="3:8">
@@ -7327,19 +7330,19 @@
         <v>172</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H182" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="183" spans="3:8">
@@ -7347,19 +7350,19 @@
         <v>173</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H183" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="184" spans="3:8">
@@ -7367,19 +7370,19 @@
         <v>174</v>
       </c>
       <c r="D184" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="H184" s="10" t="s">
         <v>509</v>
-      </c>
-      <c r="E184" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="F184" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="H184" s="10" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="185" spans="3:8">
@@ -7387,19 +7390,19 @@
         <v>175</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="186" spans="3:8">
@@ -7407,17 +7410,17 @@
         <v>176</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="3:8">
@@ -7425,17 +7428,17 @@
         <v>177</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G187" s="10"/>
       <c r="H187" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="188" spans="3:8">
@@ -7443,17 +7446,17 @@
         <v>178</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H188" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="3:8">
@@ -7461,17 +7464,17 @@
         <v>179</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H189" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="190" spans="3:8">
@@ -7479,17 +7482,17 @@
         <v>180</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H190" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="3:8">
@@ -7497,19 +7500,19 @@
         <v>181</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H191" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="192" spans="3:8">
@@ -7517,19 +7520,19 @@
         <v>182</v>
       </c>
       <c r="D192" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="G192" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H192" s="10" t="s">
         <v>534</v>
-      </c>
-      <c r="E192" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="F192" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="G192" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="H192" s="10" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="193" spans="3:8">
@@ -7537,19 +7540,19 @@
         <v>183</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H193" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="194" spans="3:8">
@@ -7557,17 +7560,17 @@
         <v>184</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H194" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="195" spans="3:8">
@@ -7575,17 +7578,17 @@
         <v>185</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H195" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="196" spans="3:8">
@@ -7593,17 +7596,17 @@
         <v>186</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F196" s="10"/>
       <c r="G196" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H196" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="3:8">
@@ -7611,19 +7614,19 @@
         <v>187</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H197" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="198" spans="3:8">
@@ -7631,19 +7634,19 @@
         <v>188</v>
       </c>
       <c r="D198" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="G198" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="H198" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="E198" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="F198" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="G198" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="H198" s="10" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="199" spans="3:8">
@@ -7651,19 +7654,19 @@
         <v>189</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H199" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="3:8">
@@ -7671,19 +7674,19 @@
         <v>190</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H200" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="201" spans="3:8">
@@ -7691,19 +7694,19 @@
         <v>191</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H201" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="202" spans="3:8">
@@ -7711,19 +7714,19 @@
         <v>192</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H202" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="3:8">
@@ -7731,19 +7734,19 @@
         <v>193</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H203" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="204" spans="3:8">
@@ -7751,14 +7754,14 @@
         <v>194</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F204" s="10"/>
       <c r="G204" s="15" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H204" s="10"/>
     </row>
@@ -7767,17 +7770,17 @@
         <v>195</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F205" s="10"/>
       <c r="G205" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H205" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206" spans="3:8">
@@ -7785,17 +7788,17 @@
         <v>196</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H206" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="207" spans="3:8">
@@ -7803,17 +7806,17 @@
         <v>197</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H207" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="208" spans="3:8">
@@ -7821,19 +7824,19 @@
         <v>198</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H208" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="209" spans="3:8">
@@ -7841,19 +7844,19 @@
         <v>199</v>
       </c>
       <c r="D209" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="F209" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G209" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="H209" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="F209" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="G209" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="H209" s="10" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="210" spans="3:8">
@@ -7861,17 +7864,17 @@
         <v>200</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H210" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211" spans="3:8">
@@ -7879,19 +7882,19 @@
         <v>201</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H211" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="212" spans="3:8">
@@ -7899,19 +7902,19 @@
         <v>202</v>
       </c>
       <c r="D212" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="G212" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="H212" s="14" t="s">
         <v>601</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="F212" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="G212" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="H212" s="14" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="213" spans="3:8">
@@ -7919,17 +7922,17 @@
         <v>203</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E213" s="17"/>
       <c r="F213" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G213" s="17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H213" s="29" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="214" spans="3:8">
@@ -7937,17 +7940,17 @@
         <v>204</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E214" s="17"/>
       <c r="F214" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H214" s="29" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="215" spans="3:8">
@@ -7955,19 +7958,19 @@
         <v>205</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H215" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="216" spans="3:8">
@@ -7975,19 +7978,19 @@
         <v>206</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H216" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="217" spans="3:8">
@@ -7995,19 +7998,19 @@
         <v>207</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H217" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="218" spans="3:8">
@@ -8015,19 +8018,19 @@
         <v>208</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H218" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="219" spans="3:8">
@@ -8035,19 +8038,19 @@
         <v>209</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H219" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="220" spans="3:8">
@@ -8055,19 +8058,19 @@
         <v>210</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H220" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="221" spans="3:8">
@@ -8075,19 +8078,19 @@
         <v>211</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H221" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="222" spans="3:8">
@@ -8095,19 +8098,19 @@
         <v>212</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H222" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="223" spans="3:8">
@@ -8115,17 +8118,17 @@
         <v>213</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F223" s="10"/>
       <c r="G223" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H223" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="224" spans="3:8">
@@ -8133,17 +8136,17 @@
         <v>214</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F224" s="10"/>
       <c r="G224" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H224" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="225" spans="3:8">
@@ -8151,16 +8154,16 @@
         <v>215</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H225" s="10"/>
     </row>
@@ -8169,16 +8172,16 @@
         <v>216</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H226" s="10"/>
     </row>
@@ -8187,14 +8190,14 @@
         <v>217</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H227" s="10"/>
     </row>
@@ -8203,19 +8206,19 @@
         <v>218</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H228" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="229" spans="3:8">
@@ -8223,19 +8226,19 @@
         <v>219</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H229" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="230" spans="3:8">
@@ -8243,19 +8246,19 @@
         <v>220</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F230" s="17" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H230" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="231" spans="3:8">
@@ -8263,19 +8266,19 @@
         <v>221</v>
       </c>
       <c r="D231" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="E231" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="F231" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="G231" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="E231" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="F231" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="G231" s="17" t="s">
-        <v>661</v>
-      </c>
       <c r="H231" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="3:8">
@@ -8283,19 +8286,19 @@
         <v>222</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H232" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="233" spans="3:8">
@@ -8303,14 +8306,14 @@
         <v>223</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F233" s="10"/>
       <c r="G233" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H233" s="10"/>
     </row>
@@ -8319,19 +8322,19 @@
         <v>224</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H234" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="235" spans="3:8">
@@ -8339,17 +8342,17 @@
         <v>225</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F235" s="17" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G235" s="17"/>
       <c r="H235" s="17" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="236" spans="3:8">
@@ -8357,14 +8360,14 @@
         <v>226</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F236" s="10"/>
       <c r="G236" s="10" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H236" s="10"/>
     </row>
@@ -8373,10 +8376,10 @@
         <v>227</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F237" s="10"/>
       <c r="G237" s="10"/>
@@ -8387,14 +8390,14 @@
         <v>228</v>
       </c>
       <c r="D238" s="31" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E238" s="31"/>
       <c r="F238" s="31" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G238" s="31" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H238" s="31"/>
     </row>
@@ -8403,11 +8406,11 @@
         <v>229</v>
       </c>
       <c r="D239" s="31" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E239" s="31"/>
       <c r="F239" s="31" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G239" s="31"/>
       <c r="H239" s="31"/>
@@ -8417,19 +8420,19 @@
         <v>230</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F240" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="G240" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="G240" s="10" t="s">
-        <v>686</v>
-      </c>
       <c r="H240" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="241" spans="3:8">
@@ -8437,19 +8440,19 @@
         <v>231</v>
       </c>
       <c r="D241" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="G241" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="H241" s="10" t="s">
         <v>689</v>
-      </c>
-      <c r="E241" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="F241" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="G241" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="H241" s="10" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="242" spans="3:8">
@@ -8457,14 +8460,14 @@
         <v>232</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E242" s="17"/>
       <c r="F242" s="17" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H242" s="17"/>
     </row>
@@ -8473,12 +8476,12 @@
         <v>233</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E243" s="17"/>
       <c r="F243" s="17"/>
       <c r="G243" s="17" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H243" s="17"/>
     </row>
@@ -8487,19 +8490,19 @@
         <v>234</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G244" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H244" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="245" spans="3:8">
@@ -8507,19 +8510,19 @@
         <v>235</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H245" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="246" spans="3:8">
@@ -8527,19 +8530,19 @@
         <v>236</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H246" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="247" spans="3:8">
@@ -8547,17 +8550,17 @@
         <v>237</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E247" s="17"/>
       <c r="F247" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H247" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="248" spans="3:8">
@@ -8565,15 +8568,15 @@
         <v>238</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E248" s="17"/>
       <c r="F248" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G248" s="17"/>
       <c r="H248" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="249" spans="3:8">
@@ -8581,17 +8584,17 @@
         <v>239</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F249" s="10"/>
       <c r="G249" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H249" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="250" spans="3:8">
@@ -8599,19 +8602,19 @@
         <v>240</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H250" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="251" spans="3:8">
@@ -8619,19 +8622,19 @@
         <v>241</v>
       </c>
       <c r="D251" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="F251" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="G251" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="H251" s="10" t="s">
         <v>718</v>
-      </c>
-      <c r="E251" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="F251" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="G251" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="H251" s="10" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="252" spans="3:8">
@@ -8639,19 +8642,19 @@
         <v>242</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H252" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="253" spans="3:8">
@@ -8659,19 +8662,19 @@
         <v>243</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F253" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G253" s="17" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H253" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="254" spans="3:8">
@@ -8679,19 +8682,19 @@
         <v>244</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F254" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G254" s="17" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H254" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="255" spans="3:8">
@@ -8699,17 +8702,17 @@
         <v>245</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E255" s="17"/>
       <c r="F255" s="17" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G255" s="17" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H255" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="256" spans="3:8">
@@ -8717,19 +8720,19 @@
         <v>246</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H256" s="10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="257" spans="3:8">
@@ -8737,19 +8740,19 @@
         <v>247</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F257" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="G257" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="H257" s="10" t="s">
         <v>737</v>
-      </c>
-      <c r="G257" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="H257" s="10" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="258" spans="3:8">
@@ -8757,19 +8760,19 @@
         <v>248</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F258" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="G258" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="H258" s="10" t="s">
         <v>737</v>
-      </c>
-      <c r="G258" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="H258" s="10" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="259" spans="3:8">
@@ -8777,17 +8780,17 @@
         <v>249</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G259" s="10"/>
       <c r="H259" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="260" spans="3:8">
@@ -8795,19 +8798,19 @@
         <v>250</v>
       </c>
       <c r="D260" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="F260" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="E260" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="F260" s="10" t="s">
-        <v>744</v>
-      </c>
       <c r="G260" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H260" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="261" spans="3:8">
@@ -8815,19 +8818,19 @@
         <v>251</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H261" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="262" spans="3:8">
@@ -8835,19 +8838,19 @@
         <v>252</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G262" s="17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H262" s="17" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="263" spans="3:8">
@@ -8855,19 +8858,19 @@
         <v>253</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H263" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="3:8">
@@ -8875,19 +8878,19 @@
         <v>254</v>
       </c>
       <c r="D264" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="F264" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="G264" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="E264" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="F264" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="G264" s="10" t="s">
-        <v>756</v>
-      </c>
       <c r="H264" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="3:8">
@@ -8895,19 +8898,19 @@
         <v>255</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H265" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="3:8">
@@ -8915,19 +8918,19 @@
         <v>256</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H266" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="267" spans="3:8">
@@ -8935,19 +8938,19 @@
         <v>257</v>
       </c>
       <c r="D267" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="E267" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="F267" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="G267" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="H267" s="10" t="s">
         <v>764</v>
-      </c>
-      <c r="E267" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="F267" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="G267" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="H267" s="10" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="268" spans="3:8">
@@ -8955,19 +8958,19 @@
         <v>258</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H268" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="269" spans="3:8">
@@ -8975,19 +8978,19 @@
         <v>259</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F269" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H269" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="270" spans="3:8">
@@ -8995,16 +8998,16 @@
         <v>260</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F270" s="17" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G270" s="17" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H270" s="17"/>
     </row>
@@ -9013,19 +9016,19 @@
         <v>261</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H271" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="272" spans="3:8">
@@ -9033,14 +9036,14 @@
         <v>262</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E272" s="17"/>
       <c r="F272" s="17" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G272" s="17" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H272" s="17"/>
     </row>
@@ -9049,17 +9052,17 @@
         <v>263</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F273" s="10"/>
       <c r="G273" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H273" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="274" spans="3:8">
@@ -9067,14 +9070,14 @@
         <v>264</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F274" s="17"/>
       <c r="G274" s="17" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H274" s="17"/>
     </row>
@@ -9083,14 +9086,14 @@
         <v>265</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F275" s="17"/>
       <c r="G275" s="17" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H275" s="17"/>
     </row>
@@ -9099,19 +9102,19 @@
         <v>266</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F276" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="G276" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="G276" s="10" t="s">
-        <v>790</v>
-      </c>
       <c r="H276" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="277" spans="3:8">
@@ -9119,19 +9122,19 @@
         <v>267</v>
       </c>
       <c r="D277" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="F277" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="H277" s="10" t="s">
         <v>793</v>
-      </c>
-      <c r="E277" s="10" t="s">
-        <v>794</v>
-      </c>
-      <c r="F277" s="10" t="s">
-        <v>791</v>
-      </c>
-      <c r="G277" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="H277" s="10" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="278" spans="3:8">
@@ -9139,17 +9142,17 @@
         <v>268</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F278" s="10"/>
       <c r="G278" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="H278" s="10" t="s">
         <v>798</v>
-      </c>
-      <c r="H278" s="10" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="279" spans="3:8">
@@ -9157,17 +9160,17 @@
         <v>269</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H279" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="280" spans="3:8">
@@ -9175,19 +9178,19 @@
         <v>270</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F280" s="10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G280" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H280" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="281" spans="3:8">
@@ -9195,19 +9198,19 @@
         <v>271</v>
       </c>
       <c r="D281" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="F281" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="G281" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="H281" s="10" t="s">
         <v>808</v>
-      </c>
-      <c r="E281" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="F281" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="G281" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="H281" s="10" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="282" spans="3:8">
@@ -9215,17 +9218,17 @@
         <v>272</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F282" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G282" s="10"/>
       <c r="H282" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="283" spans="3:8">
@@ -9233,17 +9236,17 @@
         <v>273</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F283" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G283" s="10"/>
       <c r="H283" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="284" spans="3:8">
@@ -9251,12 +9254,12 @@
         <v>274</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E284" s="17"/>
       <c r="F284" s="17"/>
       <c r="G284" s="17" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H284" s="17"/>
     </row>
@@ -9265,17 +9268,17 @@
         <v>275</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F285" s="10"/>
       <c r="G285" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H285" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="286" spans="3:8">
@@ -9283,17 +9286,17 @@
         <v>276</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F286" s="10"/>
       <c r="G286" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H286" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="287" spans="3:8">
@@ -9301,19 +9304,19 @@
         <v>277</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G287" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H287" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="288" spans="3:8">
@@ -9321,17 +9324,17 @@
         <v>278</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E288" s="10"/>
       <c r="F288" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H288" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="289" spans="3:8">
@@ -9339,19 +9342,19 @@
         <v>279</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H289" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="290" spans="3:8">
@@ -9359,19 +9362,19 @@
         <v>280</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F290" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H290" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="291" spans="3:8">
@@ -9379,19 +9382,19 @@
         <v>281</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F291" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H291" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="292" spans="3:8">
@@ -9399,17 +9402,17 @@
         <v>282</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E292" s="17" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F292" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G292" s="17"/>
       <c r="H292" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="293" spans="3:8">
@@ -9417,17 +9420,17 @@
         <v>283</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E293" s="17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G293" s="17"/>
       <c r="H293" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="294" spans="3:8">
@@ -9435,17 +9438,17 @@
         <v>284</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E294" s="17" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F294" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G294" s="17"/>
       <c r="H294" s="17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="295" spans="3:8">
@@ -9453,14 +9456,14 @@
         <v>285</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E295" s="17"/>
       <c r="F295" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G295" s="17" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H295" s="17"/>
     </row>
@@ -9469,11 +9472,11 @@
         <v>286</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E296" s="17"/>
       <c r="F296" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G296" s="17"/>
       <c r="H296" s="17"/>
@@ -9483,11 +9486,11 @@
         <v>287</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E297" s="17"/>
       <c r="F297" s="17" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G297" s="17"/>
       <c r="H297" s="17"/>
@@ -9497,19 +9500,19 @@
         <v>288</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F298" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G298" s="10" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H298" s="10" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="299" spans="3:8">
@@ -9517,19 +9520,19 @@
         <v>289</v>
       </c>
       <c r="D299" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="F299" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="G299" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="H299" s="10" t="s">
         <v>860</v>
-      </c>
-      <c r="E299" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="F299" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="G299" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="H299" s="10" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="300" spans="3:8">
@@ -9537,19 +9540,19 @@
         <v>290</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F300" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G300" s="10" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H300" s="10" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="301" spans="3:8">
@@ -9557,17 +9560,17 @@
         <v>291</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F301" s="10"/>
       <c r="G301" s="10" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H301" s="10" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="302" spans="3:8">
@@ -9575,15 +9578,15 @@
         <v>292</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E302" s="17"/>
       <c r="F302" s="17"/>
       <c r="G302" s="17" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H302" s="17" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="303" spans="3:8">
@@ -9591,19 +9594,19 @@
         <v>293</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F303" s="10" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G303" s="10" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H303" s="10" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="304" spans="3:8">
@@ -9611,19 +9614,19 @@
         <v>294</v>
       </c>
       <c r="D304" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="E304" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="F304" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="G304" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="H304" s="10" t="s">
         <v>877</v>
-      </c>
-      <c r="E304" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="F304" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="G304" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="H304" s="10" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="305" spans="3:8">
@@ -9631,19 +9634,19 @@
         <v>295</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F305" s="10" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H305" s="10" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="306" spans="3:8">
@@ -9651,19 +9654,19 @@
         <v>296</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F306" s="10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G306" s="10" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H306" s="10" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="307" spans="3:8">
@@ -9671,19 +9674,19 @@
         <v>297</v>
       </c>
       <c r="D307" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="F307" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="G307" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="H307" s="10" t="s">
         <v>888</v>
-      </c>
-      <c r="E307" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="F307" s="10" t="s">
-        <v>885</v>
-      </c>
-      <c r="G307" s="10" t="s">
-        <v>890</v>
-      </c>
-      <c r="H307" s="10" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="308" spans="3:8">
@@ -9691,14 +9694,14 @@
         <v>298</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E308" s="17" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F308" s="17"/>
       <c r="G308" s="17" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H308" s="17"/>
     </row>
@@ -9707,19 +9710,19 @@
         <v>299</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F309" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H309" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="310" spans="3:8">
@@ -9727,19 +9730,19 @@
         <v>300</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F310" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G310" s="10" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H310" s="10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="311" spans="3:8">
@@ -9747,19 +9750,19 @@
         <v>301</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F311" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G311" s="10" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H311" s="10" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="312" spans="3:8">
@@ -9767,19 +9770,19 @@
         <v>302</v>
       </c>
       <c r="D312" s="10" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F312" s="10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G312" s="10" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H312" s="10" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="313" spans="3:8">
@@ -9787,19 +9790,19 @@
         <v>303</v>
       </c>
       <c r="D313" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="F313" s="10" t="s">
+        <v>909</v>
+      </c>
+      <c r="G313" s="10" t="s">
+        <v>914</v>
+      </c>
+      <c r="H313" s="10" t="s">
         <v>911</v>
-      </c>
-      <c r="E313" s="10" t="s">
-        <v>912</v>
-      </c>
-      <c r="F313" s="10" t="s">
-        <v>908</v>
-      </c>
-      <c r="G313" s="10" t="s">
-        <v>913</v>
-      </c>
-      <c r="H313" s="10" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="314" spans="3:8">
@@ -9807,19 +9810,19 @@
         <v>304</v>
       </c>
       <c r="D314" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G314" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H314" s="10" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="315" ht="33" spans="3:8">
@@ -9827,19 +9830,19 @@
         <v>305</v>
       </c>
       <c r="D315" s="10" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F315" s="10" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G315" s="13" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H315" s="10" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="316" spans="3:8">
@@ -9847,19 +9850,19 @@
         <v>306</v>
       </c>
       <c r="D316" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="E316" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="F316" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="G316" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="H316" s="10" t="s">
         <v>922</v>
-      </c>
-      <c r="E316" s="10" t="s">
-        <v>923</v>
-      </c>
-      <c r="F316" s="10" t="s">
-        <v>919</v>
-      </c>
-      <c r="G316" s="10" t="s">
-        <v>924</v>
-      </c>
-      <c r="H316" s="10" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="928">
   <si>
     <t>序号test1</t>
   </si>
@@ -34,6 +47,9 @@
     <t>关联性test1</t>
   </si>
   <si>
+    <t>1-ugit</t>
+  </si>
+  <si>
     <t>alliance_flag test2</t>
   </si>
   <si>
@@ -47,6 +63,9 @@
   </si>
   <si>
     <t>联盟相关</t>
+  </si>
+  <si>
+    <t>2-ugit</t>
   </si>
   <si>
     <t>item_recycle2</t>
@@ -2797,55 +2816,212 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color rgb="FF7030A0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2888,8 +3064,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2898,43 +3260,323 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3023,17 +3665,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3295,14 +3981,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:H316"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="7" x14ac:dyDescent="0" defaultColWidth="9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.66666666666667" style="2" customWidth="1"/>
@@ -3313,29 +4000,9 @@
     <col min="9" max="16384" width="8.66666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="15"/>
+    <row r="3" ht="15.75" spans="3:8">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3355,315 +4022,285 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6">
-        <v>1</v>
+    <row r="4" spans="3:8">
+      <c r="C4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="8">
-        <v>2</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="3:8">
       <c r="C6" s="8">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
       <c r="C7" s="8">
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" s="8">
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="8">
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
       <c r="C10" s="8">
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" s="8">
         <v>8</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
       <c r="C12" s="8">
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="8">
         <v>10</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
       <c r="C14" s="8">
         <v>11</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="8">
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="8">
         <v>13</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="8">
         <v>14</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -3671,601 +4308,541 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="3:8">
       <c r="C19" s="8">
         <v>15</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="8">
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21" s="8">
         <v>17</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="8">
         <v>18</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
       <c r="C23" s="8">
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
       <c r="C24" s="8">
         <v>20</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" ht="33" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" ht="33" customHeight="1" spans="3:8">
       <c r="C25" s="8">
         <v>21</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
       <c r="C26" s="8">
         <v>22</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
       <c r="C27" s="8">
         <v>23</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
       <c r="C28" s="8">
         <v>24</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" ht="31.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" ht="31.5" customHeight="1" spans="3:8">
       <c r="C29" s="8">
         <v>25</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
       <c r="C30" s="8">
         <v>26</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+    </row>
+    <row r="31" spans="3:8">
       <c r="C31" s="8">
         <v>27</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
       <c r="C32" s="8">
         <v>28</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
       <c r="C33" s="8">
         <v>29</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+    </row>
+    <row r="34" spans="3:8">
       <c r="C34" s="8">
         <v>30</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
       <c r="C35" s="8">
         <v>31</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="G35" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
       <c r="C36" s="8">
         <v>32</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
       <c r="C37" s="8">
         <v>33</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="G37" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
       <c r="C38" s="8">
         <v>34</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="F38" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
       <c r="C39" s="8">
         <v>35</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
       <c r="C40" s="15">
         <v>36</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="3:8">
       <c r="C41" s="15">
         <v>37</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+    <row r="42" spans="3:8">
       <c r="C42" s="15">
         <v>38</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+    <row r="43" spans="3:8">
       <c r="C43" s="15">
         <v>39</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+    <row r="44" spans="3:8">
       <c r="C44" s="15">
         <v>40</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+    <row r="45" spans="3:8">
       <c r="C45" s="15">
         <v>41</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+    <row r="46" spans="3:8">
       <c r="C46" s="15">
         <v>42</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+    <row r="47" spans="3:8">
       <c r="C47" s="15">
         <v>43</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+    <row r="48" spans="3:8">
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -4273,801 +4850,717 @@
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+    <row r="49" spans="3:8">
       <c r="C49" s="8">
         <v>44</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
       <c r="C50" s="8">
         <v>45</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
       <c r="C51" s="8">
         <v>46</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E51" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
       <c r="C52" s="8">
         <v>47</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
       <c r="C53" s="15">
         <v>48</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="54" spans="3:8">
       <c r="C54" s="8">
         <v>49</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
       <c r="C55" s="15">
         <v>50</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+    <row r="56" spans="3:8">
       <c r="C56" s="15">
         <v>51</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+    <row r="57" spans="3:8">
       <c r="C57" s="15">
         <v>52</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+    <row r="58" spans="3:8">
       <c r="C58" s="15">
         <v>53</v>
       </c>
       <c r="D58" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>163</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+    <row r="59" spans="3:8">
       <c r="C59" s="15">
         <v>54</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H59" s="16"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+    <row r="60" spans="3:8">
       <c r="C60" s="15">
         <v>55</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+    <row r="61" spans="3:8">
       <c r="C61" s="15">
         <v>56</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+    <row r="62" spans="3:8">
       <c r="C62" s="8">
         <v>57</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+    <row r="63" spans="3:8">
       <c r="C63" s="8">
         <v>58</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
       <c r="C64" s="8">
         <v>59</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E64" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
       <c r="C65" s="8">
         <v>60</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
       <c r="C66" s="8">
         <v>61</v>
       </c>
       <c r="D66" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
       <c r="C67" s="8">
         <v>62</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8">
       <c r="C68" s="8">
         <v>63</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
       <c r="C69" s="15">
         <v>64</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H69" s="16"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+    <row r="70" spans="3:8">
       <c r="C70" s="15">
         <v>65</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H70" s="16"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+    <row r="71" spans="3:8">
       <c r="C71" s="15">
         <v>66</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H71" s="16"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+    <row r="72" spans="3:8">
       <c r="C72" s="15">
         <v>67</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+    <row r="73" spans="3:8">
       <c r="C73" s="15">
         <v>68</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+    <row r="74" spans="3:8">
       <c r="C74" s="15">
         <v>69</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H74" s="16"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+    <row r="75" spans="3:8">
       <c r="C75" s="8">
         <v>70</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
       <c r="C76" s="15">
         <v>71</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+    <row r="77" spans="3:8">
       <c r="C77" s="15">
         <v>72</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+    <row r="78" spans="3:8">
       <c r="C78" s="15">
         <v>73</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H78" s="16"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+    <row r="79" spans="3:8">
       <c r="C79" s="8">
         <v>74</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
       <c r="C80" s="8">
         <v>75</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
       <c r="C81" s="15">
         <v>76</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H81" s="16"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+    <row r="82" spans="3:8">
       <c r="C82" s="15">
         <v>77</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H82" s="16"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+    <row r="83" spans="3:8">
       <c r="C83" s="8">
         <v>78</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
       <c r="C84" s="8">
         <v>79</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E84" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>220</v>
-      </c>
       <c r="G84" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
       <c r="C85" s="8">
         <v>80</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
       <c r="C86" s="8">
         <v>81</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
       <c r="C87" s="8">
         <v>82</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8">
       <c r="C88" s="15">
         <v>83</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+    <row r="89" spans="3:8">
       <c r="C89" s="15">
         <v>84</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E89" s="16"/>
       <c r="F89" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+    <row r="90" spans="3:8">
       <c r="C90" s="19"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
@@ -5075,331 +5568,299 @@
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+    <row r="91" spans="3:8">
       <c r="C91" s="8">
         <v>85</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8">
       <c r="C92" s="8">
         <v>86</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E92" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H92" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F92" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+    </row>
+    <row r="93" spans="3:8">
       <c r="C93" s="8">
         <v>87</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8">
       <c r="C94" s="8">
         <v>88</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8">
       <c r="C95" s="8">
         <v>89</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E95" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F95" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F95" s="9" t="s">
-        <v>249</v>
-      </c>
       <c r="G95" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8">
       <c r="C96" s="8">
         <v>90</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8">
       <c r="C97" s="8">
         <v>91</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8">
       <c r="C98" s="8">
         <v>92</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8">
       <c r="C99" s="15">
         <v>93</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H99" s="16"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+    <row r="100" spans="3:8">
       <c r="C100" s="8">
         <v>94</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8">
       <c r="C101" s="8">
         <v>95</v>
       </c>
       <c r="D101" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F101" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>267</v>
-      </c>
       <c r="G101" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8">
       <c r="C102" s="8">
         <v>96</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8">
       <c r="C103" s="15">
         <v>97</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8">
       <c r="C104" s="8">
         <v>98</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8">
       <c r="C105" s="8">
         <v>99</v>
       </c>
       <c r="D105" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F105" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="G105" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8">
       <c r="C106" s="21"/>
       <c r="D106" s="22"/>
       <c r="E106" s="22"/>
@@ -5407,231 +5868,207 @@
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+    <row r="107" spans="3:8">
       <c r="C107" s="8">
         <v>100</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8">
       <c r="C108" s="8">
         <v>101</v>
       </c>
       <c r="D108" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F108" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8">
       <c r="C109" s="8">
         <v>102</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8">
       <c r="C110" s="8">
         <v>103</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8">
       <c r="C111" s="8">
         <v>104</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8">
       <c r="C112" s="8">
         <v>105</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8">
       <c r="C113" s="8">
         <v>106</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8">
       <c r="C114" s="8">
         <v>107</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8">
       <c r="C115" s="8">
         <v>108</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8">
       <c r="C116" s="8">
         <v>109</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8">
       <c r="C117" s="8">
         <v>110</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8">
       <c r="C118" s="23"/>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
@@ -5639,163 +6076,147 @@
       <c r="G118" s="24"/>
       <c r="H118" s="24"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+    <row r="119" spans="3:8">
       <c r="C119" s="8">
         <v>111</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8">
       <c r="C120" s="8">
         <v>112</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E120" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H120" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F120" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+    </row>
+    <row r="121" spans="3:8">
       <c r="C121" s="8">
         <v>113</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8">
       <c r="C122" s="8">
         <v>114</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8">
       <c r="C123" s="8">
         <v>115</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8">
       <c r="C124" s="8">
         <v>116</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8">
       <c r="C125" s="8">
         <v>117</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8">
       <c r="C126" s="17"/>
       <c r="D126" s="18"/>
       <c r="E126" s="18"/>
@@ -5803,73 +6224,65 @@
       <c r="G126" s="25"/>
       <c r="H126" s="18"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+    <row r="127" spans="3:8">
       <c r="C127" s="8">
         <v>118</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8">
       <c r="C128" s="8">
         <v>119</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E128" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H128" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="F128" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+    </row>
+    <row r="129" spans="3:8">
       <c r="C129" s="8">
         <v>120</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8">
       <c r="C130" s="19"/>
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
@@ -5877,3866 +6290,3494 @@
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+    <row r="131" spans="3:8">
       <c r="C131" s="8">
         <v>121</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G131" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="H131" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="H131" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+    </row>
+    <row r="132" spans="3:8">
       <c r="C132" s="8">
         <v>122</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8">
       <c r="C133" s="8">
         <v>123</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8">
       <c r="C134" s="8">
         <v>124</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E134" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="H134" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="F134" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+    </row>
+    <row r="135" spans="3:8">
       <c r="C135" s="8">
         <v>125</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8">
       <c r="C136" s="8">
         <v>126</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E136" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="H136" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="F136" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+    </row>
+    <row r="137" spans="3:8">
       <c r="C137" s="8">
         <v>127</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8">
       <c r="C138" s="8">
         <v>128</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8">
       <c r="C139" s="8">
         <v>129</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8">
       <c r="C140" s="8">
         <v>130</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8">
       <c r="C141" s="8">
         <v>131</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8">
       <c r="C142" s="15">
         <v>132</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H142" s="16"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+    <row r="143" spans="3:8">
       <c r="C143" s="8">
         <v>133</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F143" s="9"/>
       <c r="G143" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8">
       <c r="C144" s="8">
         <v>134</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8">
       <c r="C145" s="8">
         <v>135</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8">
       <c r="C146" s="8">
         <v>136</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8">
       <c r="C147" s="8">
         <v>137</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8">
       <c r="C148" s="8">
         <v>138</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8">
       <c r="C149" s="8">
         <v>139</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8">
       <c r="C150" s="8">
         <v>140</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E150" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="H150" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="F150" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+    </row>
+    <row r="151" spans="3:8">
       <c r="C151" s="8">
         <v>141</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8">
       <c r="C152" s="8">
         <v>142</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8">
       <c r="C153" s="8">
         <v>143</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8">
       <c r="C154" s="8">
         <v>144</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8">
       <c r="C155" s="8">
         <v>145</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8">
       <c r="C156" s="8">
         <v>146</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8">
       <c r="C157" s="8">
         <v>147</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E157" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H157" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="F157" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+    </row>
+    <row r="158" spans="3:8">
       <c r="C158" s="8">
         <v>148</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8">
       <c r="C159" s="15">
         <v>149</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F159" s="16"/>
       <c r="G159" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H159" s="16"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+    <row r="160" spans="3:8">
       <c r="C160" s="15">
         <v>150</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="16" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H160" s="16"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+    <row r="161" spans="3:8">
       <c r="C161" s="8">
         <v>151</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8">
       <c r="C162" s="15">
         <v>152</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
       <c r="G162" s="16" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8">
       <c r="C163" s="15">
         <v>153</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E163" s="16"/>
       <c r="F163" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="H163" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="G163" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="H163" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+    </row>
+    <row r="164" spans="3:8">
       <c r="C164" s="8">
         <v>154</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8">
       <c r="C165" s="15">
         <v>155</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E165" s="16"/>
       <c r="F165" s="16" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G165" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="H165" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="H165" s="16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+    </row>
+    <row r="166" spans="3:8">
       <c r="C166" s="8">
         <v>156</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8">
       <c r="C167" s="8">
         <v>157</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8">
       <c r="C168" s="8">
         <v>158</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8">
       <c r="C169" s="8">
         <v>159</v>
       </c>
       <c r="D169" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F169" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="E169" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="G169" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8">
       <c r="C170" s="8">
         <v>160</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8">
       <c r="C171" s="8">
         <v>161</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8">
       <c r="C172" s="15">
         <v>162</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E172" s="16"/>
       <c r="F172" s="16" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" spans="3:8">
       <c r="C173" s="8">
         <v>163</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8">
       <c r="C174" s="8">
         <v>164</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E174" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="H174" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="F174" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="G174" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+    </row>
+    <row r="175" spans="3:8">
       <c r="C175" s="15">
         <v>165</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="16" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8">
       <c r="C176" s="8">
         <v>166</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+    <row r="177" spans="3:8">
       <c r="C177" s="8">
         <v>167</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8">
       <c r="C178" s="8">
         <v>168</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8">
       <c r="C179" s="8">
         <v>169</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8">
       <c r="C180" s="8">
         <v>170</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E180" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="H180" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="F180" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="H180" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+    </row>
+    <row r="181" spans="3:8">
       <c r="C181" s="8">
         <v>171</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="182" ht="33" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="182" ht="33" customHeight="1" spans="3:8">
       <c r="C182" s="8">
         <v>172</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8">
       <c r="C183" s="8">
         <v>173</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8">
       <c r="C184" s="8">
         <v>174</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E184" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H184" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="F184" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H184" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+    </row>
+    <row r="185" spans="3:8">
       <c r="C185" s="8">
         <v>175</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8">
       <c r="C186" s="8">
         <v>176</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8">
       <c r="C187" s="8">
         <v>177</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8">
       <c r="C188" s="8">
         <v>178</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8">
       <c r="C189" s="8">
         <v>179</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G189" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="H189" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="H189" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+    </row>
+    <row r="190" spans="3:8">
       <c r="C190" s="8">
         <v>180</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8">
       <c r="C191" s="8">
         <v>181</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8">
       <c r="C192" s="8">
         <v>182</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E192" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="H192" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="F192" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="H192" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+    </row>
+    <row r="193" spans="3:8">
       <c r="C193" s="8">
         <v>183</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8">
       <c r="C194" s="8">
         <v>184</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8">
       <c r="C195" s="8">
         <v>185</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G195" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="H195" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="H195" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+    </row>
+    <row r="196" spans="3:8">
       <c r="C196" s="8">
         <v>186</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="9" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8">
       <c r="C197" s="8">
         <v>187</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8">
       <c r="C198" s="8">
         <v>188</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E198" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="H198" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="F198" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="G198" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="H198" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+    </row>
+    <row r="199" spans="3:8">
       <c r="C199" s="8">
         <v>189</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8">
       <c r="C200" s="8">
         <v>190</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8">
       <c r="C201" s="8">
         <v>191</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8">
       <c r="C202" s="8">
         <v>192</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8">
       <c r="C203" s="8">
         <v>193</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8">
       <c r="C204" s="8">
         <v>194</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="14" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H204" s="9"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+    <row r="205" spans="3:8">
       <c r="C205" s="8">
         <v>195</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8">
       <c r="C206" s="8">
         <v>196</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8">
       <c r="C207" s="8">
         <v>197</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G207" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="H207" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="H207" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+    </row>
+    <row r="208" spans="3:8">
       <c r="C208" s="8">
         <v>198</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8">
       <c r="C209" s="8">
         <v>199</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E209" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="H209" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="F209" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="G209" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="H209" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+    </row>
+    <row r="210" spans="3:8">
       <c r="C210" s="8">
         <v>200</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8">
       <c r="C211" s="8">
         <v>201</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="212" spans="3:8">
       <c r="C212" s="8">
         <v>202</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E212" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="H212" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="F212" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="G212" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="H212" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+    </row>
+    <row r="213" spans="3:8">
       <c r="C213" s="8">
         <v>203</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E213" s="16"/>
       <c r="F213" s="16" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H213" s="26" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8">
       <c r="C214" s="8">
         <v>204</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E214" s="16"/>
       <c r="F214" s="16" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H214" s="26" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8">
       <c r="C215" s="8">
         <v>205</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H215" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8">
       <c r="C216" s="8">
         <v>206</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H216" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8">
       <c r="C217" s="8">
         <v>207</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H217" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="218" spans="3:8">
       <c r="C218" s="8">
         <v>208</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="219" spans="3:8">
       <c r="C219" s="8">
         <v>209</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H219" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="220" spans="3:8">
       <c r="C220" s="8">
         <v>210</v>
       </c>
       <c r="D220" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="F220" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="E220" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="F220" s="9" t="s">
-        <v>623</v>
-      </c>
       <c r="G220" s="9" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H220" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="221" spans="3:8">
       <c r="C221" s="8">
         <v>211</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8">
       <c r="C222" s="8">
         <v>212</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="223" spans="3:8">
       <c r="C223" s="8">
         <v>213</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F223" s="9"/>
       <c r="G223" s="9" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="224" spans="3:8">
       <c r="C224" s="8">
         <v>214</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F224" s="9"/>
       <c r="G224" s="9" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8">
       <c r="C225" s="8">
         <v>215</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H225" s="9"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+    <row r="226" spans="3:8">
       <c r="C226" s="8">
         <v>216</v>
       </c>
       <c r="D226" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="F226" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="E226" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="F226" s="9" t="s">
-        <v>643</v>
-      </c>
       <c r="G226" s="9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H226" s="9"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+    <row r="227" spans="3:8">
       <c r="C227" s="8">
         <v>217</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="9" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H227" s="9"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+    <row r="228" spans="3:8">
       <c r="C228" s="8">
         <v>218</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8">
       <c r="C229" s="8">
         <v>219</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H229" s="9" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8">
       <c r="C230" s="8">
         <v>220</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F230" s="16" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G230" s="16" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="231" spans="3:8">
       <c r="C231" s="8">
         <v>221</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E231" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="F231" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="G231" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="F231" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>662</v>
-      </c>
       <c r="H231" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="232" spans="3:8">
       <c r="C232" s="8">
         <v>222</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="233" spans="3:8">
       <c r="C233" s="8">
         <v>223</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H233" s="9"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+    <row r="234" spans="3:8">
       <c r="C234" s="8">
         <v>224</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H234" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="235" spans="3:8">
       <c r="C235" s="15">
         <v>225</v>
       </c>
       <c r="D235" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="E235" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F235" s="16" t="s">
         <v>676</v>
-      </c>
-      <c r="E235" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="F235" s="16" t="s">
-        <v>674</v>
       </c>
       <c r="G235" s="16"/>
       <c r="H235" s="16" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="236" spans="3:8">
       <c r="C236" s="8">
         <v>226</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="9" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H236" s="9"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+    <row r="237" spans="3:8">
       <c r="C237" s="8">
         <v>227</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
       <c r="H237" s="9"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
+    <row r="238" spans="3:8">
       <c r="C238" s="27">
         <v>228</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E238" s="28"/>
       <c r="F238" s="28" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G238" s="28" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H238" s="28"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
+    <row r="239" spans="3:8">
       <c r="C239" s="27">
         <v>229</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E239" s="28"/>
       <c r="F239" s="28" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G239" s="28"/>
       <c r="H239" s="28"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
+    <row r="240" spans="3:8">
       <c r="C240" s="8">
         <v>230</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G240" s="9" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H240" s="9" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="241" spans="3:8">
       <c r="C241" s="8">
         <v>231</v>
       </c>
       <c r="D241" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="F241" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="E241" s="9" t="s">
+      <c r="G241" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="H241" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="F241" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="G241" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="H241" s="9" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
+    </row>
+    <row r="242" spans="3:8">
       <c r="C242" s="15">
         <v>232</v>
       </c>
       <c r="D242" s="16" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E242" s="16"/>
       <c r="F242" s="16" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G242" s="16" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H242" s="16"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
+    <row r="243" spans="3:8">
       <c r="C243" s="15">
         <v>233</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E243" s="16"/>
       <c r="F243" s="16"/>
       <c r="G243" s="16" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H243" s="16"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
+    <row r="244" spans="3:8">
       <c r="C244" s="8">
         <v>234</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8">
       <c r="C245" s="8">
         <v>235</v>
       </c>
       <c r="D245" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="F245" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="E245" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="F245" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="G245" s="9" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H245" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="246" spans="3:8">
       <c r="C246" s="8">
         <v>236</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H246" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="247" spans="3:8">
       <c r="C247" s="15">
         <v>237</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E247" s="16"/>
       <c r="F247" s="16" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G247" s="16" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H247" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="248" spans="3:8">
       <c r="C248" s="15">
         <v>238</v>
       </c>
       <c r="D248" s="16" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E248" s="16"/>
       <c r="F248" s="16" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G248" s="16"/>
       <c r="H248" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="249" spans="3:8">
       <c r="C249" s="8">
         <v>239</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="250" spans="3:8">
       <c r="C250" s="8">
         <v>240</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="251" spans="3:8">
       <c r="C251" s="8">
         <v>241</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E251" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="G251" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="H251" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="F251" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="G251" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="H251" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
+    </row>
+    <row r="252" spans="3:8">
       <c r="C252" s="8">
         <v>242</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H252" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="253" spans="3:8">
       <c r="C253" s="15">
         <v>243</v>
       </c>
       <c r="D253" s="16" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G253" s="16" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H253" s="16" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="254" spans="3:8">
       <c r="C254" s="15">
         <v>244</v>
       </c>
       <c r="D254" s="16" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F254" s="16" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G254" s="16" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H254" s="16" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="255" spans="3:8">
       <c r="C255" s="15">
         <v>245</v>
       </c>
       <c r="D255" s="16" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E255" s="16"/>
       <c r="F255" s="16" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G255" s="16" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H255" s="16" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="256" spans="3:8">
       <c r="C256" s="8">
         <v>246</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G256" s="9" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H256" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="257" spans="3:8">
       <c r="C257" s="8">
         <v>247</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G257" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="H257" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="H257" s="9" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
+    </row>
+    <row r="258" spans="3:8">
       <c r="C258" s="8">
         <v>248</v>
       </c>
       <c r="D258" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="E258" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="F258" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="E258" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="F258" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="G258" s="9" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H258" s="9" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="259" spans="3:8">
       <c r="C259" s="8">
         <v>249</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G259" s="9"/>
       <c r="H259" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="260" spans="3:8">
       <c r="C260" s="8">
         <v>250</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E260" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="F260" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="F260" s="9" t="s">
-        <v>745</v>
-      </c>
       <c r="G260" s="9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H260" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="261" spans="3:8">
       <c r="C261" s="8">
         <v>251</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F261" s="9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="262" spans="3:8">
       <c r="C262" s="15">
         <v>252</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G262" s="16" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H262" s="16" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="263" spans="3:8">
       <c r="C263" s="8">
         <v>253</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="3:8">
       <c r="C264" s="8">
         <v>254</v>
       </c>
       <c r="D264" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="F264" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="E264" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="F264" s="9" t="s">
-        <v>756</v>
-      </c>
       <c r="G264" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H264" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="3:8">
       <c r="C265" s="8">
         <v>255</v>
       </c>
       <c r="D265" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="E265" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="F265" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="G265" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="E265" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="F265" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="G265" s="9" t="s">
-        <v>757</v>
-      </c>
       <c r="H265" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="3:8">
       <c r="C266" s="8">
         <v>256</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H266" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="267" spans="3:8">
       <c r="C267" s="8">
         <v>257</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E267" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="H267" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="F267" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="G267" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="H267" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
+    </row>
+    <row r="268" spans="3:8">
       <c r="C268" s="8">
         <v>258</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G268" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H268" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="269" spans="3:8">
       <c r="C269" s="8">
         <v>259</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H269" s="9" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="270" spans="3:8">
       <c r="C270" s="15">
         <v>260</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F270" s="16" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G270" s="16" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H270" s="16"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
+    <row r="271" spans="3:8">
       <c r="C271" s="8">
         <v>261</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E271" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="F271" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="H271" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="F271" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="G271" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="H271" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
+    </row>
+    <row r="272" spans="3:8">
       <c r="C272" s="15">
         <v>262</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E272" s="16"/>
       <c r="F272" s="16" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G272" s="16" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H272" s="16"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
+    <row r="273" spans="3:8">
       <c r="C273" s="8">
         <v>263</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F273" s="9"/>
       <c r="G273" s="9" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H273" s="9" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="274" spans="3:8">
       <c r="C274" s="15">
         <v>264</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F274" s="16"/>
       <c r="G274" s="16" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H274" s="16"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
+    <row r="275" spans="3:8">
       <c r="C275" s="15">
         <v>265</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F275" s="16"/>
       <c r="G275" s="16" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H275" s="16"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
+    <row r="276" spans="3:8">
       <c r="C276" s="8">
         <v>266</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H276" s="9" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8">
       <c r="C277" s="8">
         <v>267</v>
       </c>
       <c r="D277" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="F277" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="E277" s="9" t="s">
+      <c r="G277" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="H277" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="F277" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="G277" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="H277" s="9" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
+    </row>
+    <row r="278" spans="3:8">
       <c r="C278" s="8">
         <v>268</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F278" s="9"/>
       <c r="G278" s="9" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H278" s="9" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="279" spans="3:8">
       <c r="C279" s="8">
         <v>269</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F279" s="9"/>
       <c r="G279" s="9" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H279" s="9" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="280" spans="3:8">
       <c r="C280" s="8">
         <v>270</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H280" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="281" spans="3:8">
       <c r="C281" s="8">
         <v>271</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E281" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="F281" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="H281" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="F281" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="G281" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="H281" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
+    </row>
+    <row r="282" spans="3:8">
       <c r="C282" s="8">
         <v>272</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G282" s="9"/>
       <c r="H282" s="9" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="283" spans="3:8">
       <c r="C283" s="8">
         <v>273</v>
       </c>
       <c r="D283" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="F283" s="9" t="s">
         <v>816</v>
-      </c>
-      <c r="E283" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="F283" s="9" t="s">
-        <v>814</v>
       </c>
       <c r="G283" s="9"/>
       <c r="H283" s="9" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="284" spans="3:8">
       <c r="C284" s="15">
         <v>274</v>
       </c>
       <c r="D284" s="16" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E284" s="16"/>
       <c r="F284" s="16"/>
       <c r="G284" s="16" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H284" s="16"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
+    <row r="285" spans="3:8">
       <c r="C285" s="8">
         <v>275</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F285" s="9"/>
       <c r="G285" s="9" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="H285" s="9" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="286" spans="3:8">
       <c r="C286" s="8">
         <v>276</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F286" s="9"/>
       <c r="G286" s="9" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H286" s="9" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="287" spans="3:8">
       <c r="C287" s="8">
         <v>277</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G287" s="9" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="288" spans="3:8">
       <c r="C288" s="8">
         <v>278</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G288" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="H288" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="H288" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
+    </row>
+    <row r="289" spans="3:8">
       <c r="C289" s="8">
         <v>279</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F289" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G289" s="9" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H289" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="290" spans="3:8">
       <c r="C290" s="8">
         <v>280</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H290" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="291" spans="3:8">
       <c r="C291" s="8">
         <v>281</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F291" s="9" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H291" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="292" spans="3:8">
       <c r="C292" s="15">
         <v>282</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F292" s="16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G292" s="16"/>
       <c r="H292" s="16" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="293" spans="3:8">
       <c r="C293" s="15">
         <v>283</v>
       </c>
       <c r="D293" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="E293" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="F293" s="16" t="s">
         <v>847</v>
-      </c>
-      <c r="E293" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="F293" s="16" t="s">
-        <v>845</v>
       </c>
       <c r="G293" s="16"/>
       <c r="H293" s="16" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="294" spans="3:8">
       <c r="C294" s="15">
         <v>284</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F294" s="16" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G294" s="16"/>
       <c r="H294" s="16" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="295" spans="3:8">
       <c r="C295" s="15">
         <v>285</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E295" s="16"/>
       <c r="F295" s="16" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G295" s="16" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H295" s="16"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
+    <row r="296" spans="3:8">
       <c r="C296" s="15">
         <v>286</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E296" s="16"/>
       <c r="F296" s="16" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G296" s="16"/>
       <c r="H296" s="16"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
+    <row r="297" spans="3:8">
       <c r="C297" s="15">
         <v>287</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E297" s="16"/>
       <c r="F297" s="16" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G297" s="16"/>
       <c r="H297" s="16"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
+    <row r="298" spans="3:8">
       <c r="C298" s="8">
         <v>288</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F298" s="9" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="H298" s="9" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="299" spans="3:8">
       <c r="C299" s="8">
         <v>289</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F299" s="9" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G299" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="H299" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="H299" s="9" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
+    </row>
+    <row r="300" spans="3:8">
       <c r="C300" s="8">
         <v>290</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G300" s="9" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="H300" s="9" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="301" spans="3:8">
       <c r="C301" s="8">
         <v>291</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F301" s="9"/>
       <c r="G301" s="9" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="H301" s="9" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="302" spans="3:8">
       <c r="C302" s="15">
         <v>292</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E302" s="16"/>
       <c r="F302" s="16"/>
       <c r="G302" s="16" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="H302" s="16" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="303" spans="3:8">
       <c r="C303" s="8">
         <v>293</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F303" s="9" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G303" s="9" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H303" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="304" spans="3:8">
       <c r="C304" s="8">
         <v>294</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E304" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="F304" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="G304" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="H304" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="F304" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="G304" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="H304" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
+    </row>
+    <row r="305" spans="3:8">
       <c r="C305" s="8">
         <v>295</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F305" s="9" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H305" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="306" spans="3:8">
       <c r="C306" s="8">
         <v>296</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F306" s="9" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G306" s="9" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="H306" s="9" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="307" spans="3:8">
       <c r="C307" s="8">
         <v>297</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E307" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="F307" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="G307" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="H307" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="F307" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="G307" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="H307" s="9" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
+    </row>
+    <row r="308" spans="3:8">
       <c r="C308" s="15">
         <v>298</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F308" s="16"/>
       <c r="G308" s="16" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="H308" s="16"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
+    <row r="309" spans="3:8">
       <c r="C309" s="8">
         <v>299</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G309" s="9" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H309" s="9" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="310" spans="3:8">
       <c r="C310" s="8">
         <v>300</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G310" s="9" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H310" s="9" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="311" spans="3:8">
       <c r="C311" s="8">
         <v>301</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G311" s="9" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H311" s="9" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="312" spans="3:8">
       <c r="C312" s="8">
         <v>302</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G312" s="9" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H312" s="9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
+        <v>913</v>
+      </c>
+    </row>
+    <row r="313" spans="3:8">
       <c r="C313" s="8">
         <v>303</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E313" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="F313" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="H313" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="F313" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="G313" s="9" t="s">
-        <v>914</v>
-      </c>
-      <c r="H313" s="9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
+    </row>
+    <row r="314" spans="3:8">
       <c r="C314" s="8">
         <v>304</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G314" s="9" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H314" s="9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="315" ht="33" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
+        <v>913</v>
+      </c>
+    </row>
+    <row r="315" ht="33" customHeight="1" spans="3:8">
       <c r="C315" s="8">
         <v>305</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H315" s="9" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="316" spans="3:8">
       <c r="C316" s="8">
         <v>306</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E316" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="F316" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="G316" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="H316" s="9" t="s">
         <v>924</v>
-      </c>
-      <c r="F316" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="G316" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="H316" s="9" t="s">
-        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -9744,6 +9785,7 @@
     <mergeCell ref="E59:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/表配置说明.xlsx
+++ b/表配置说明.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="927">
   <si>
     <t>序号test1</t>
   </si>
@@ -32,6 +45,9 @@
   </si>
   <si>
     <t>关联性test1</t>
+  </si>
+  <si>
+    <t>1-fork</t>
   </si>
   <si>
     <t>alliance_flag test2</t>
@@ -2797,55 +2813,212 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <color rgb="FF7030A0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2888,8 +3061,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2898,43 +3257,323 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3023,17 +3662,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3295,14 +3978,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:H316"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="7" x14ac:dyDescent="0" defaultColWidth="9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.66666666666667" style="2" customWidth="1"/>
@@ -3313,29 +3997,9 @@
     <col min="9" max="16384" width="8.66666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="15"/>
+    <row r="3" ht="15.75" spans="3:8">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3355,315 +4019,285 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6">
-        <v>1</v>
+    <row r="4" spans="3:8">
+      <c r="C4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
       <c r="C5" s="8">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="3:8">
       <c r="C6" s="8">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
       <c r="C7" s="8">
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" s="8">
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="8">
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
       <c r="C10" s="8">
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" s="8">
         <v>8</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
       <c r="C12" s="8">
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="8">
         <v>10</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
       <c r="C14" s="8">
         <v>11</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="8">
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="8">
         <v>13</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="8">
         <v>14</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -3671,601 +4305,541 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="3:8">
       <c r="C19" s="8">
         <v>15</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="8">
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21" s="8">
         <v>17</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="8">
         <v>18</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
       <c r="C23" s="8">
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
       <c r="C24" s="8">
         <v>20</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" ht="33" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" ht="33" customHeight="1" spans="3:8">
       <c r="C25" s="8">
         <v>21</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
       <c r="C26" s="8">
         <v>22</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
       <c r="C27" s="8">
         <v>23</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
       <c r="C28" s="8">
         <v>24</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" ht="31.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" ht="31.5" customHeight="1" spans="3:8">
       <c r="C29" s="8">
         <v>25</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
       <c r="C30" s="8">
         <v>26</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+    </row>
+    <row r="31" spans="3:8">
       <c r="C31" s="8">
         <v>27</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
       <c r="C32" s="8">
         <v>28</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
       <c r="C33" s="8">
         <v>29</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+    </row>
+    <row r="34" spans="3:8">
       <c r="C34" s="8">
         <v>30</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
       <c r="C35" s="8">
         <v>31</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
       <c r="C36" s="8">
         <v>32</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
       <c r="C37" s="8">
         <v>33</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
       <c r="C38" s="8">
         <v>34</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="H38" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
       <c r="C39" s="8">
         <v>35</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
       <c r="C40" s="15">
         <v>36</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+    <row r="41" spans="3:8">
       <c r="C41" s="15">
         <v>37</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+    <row r="42" spans="3:8">
       <c r="C42" s="15">
         <v>38</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+    <row r="43" spans="3:8">
       <c r="C43" s="15">
         <v>39</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+    <row r="44" spans="3:8">
       <c r="C44" s="15">
         <v>40</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+    <row r="45" spans="3:8">
       <c r="C45" s="15">
         <v>41</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+    <row r="46" spans="3:8">
       <c r="C46" s="15">
         <v>42</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+    <row r="47" spans="3:8">
       <c r="C47" s="15">
         <v>43</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+    <row r="48" spans="3:8">
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -4273,801 +4847,717 @@
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+    <row r="49" spans="3:8">
       <c r="C49" s="8">
         <v>44</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
       <c r="C50" s="8">
         <v>45</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
       <c r="C51" s="8">
         <v>46</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
       <c r="C52" s="8">
         <v>47</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
       <c r="C53" s="15">
         <v>48</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="54" spans="3:8">
       <c r="C54" s="8">
         <v>49</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
       <c r="C55" s="15">
         <v>50</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+    <row r="56" spans="3:8">
       <c r="C56" s="15">
         <v>51</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+    <row r="57" spans="3:8">
       <c r="C57" s="15">
         <v>52</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+    <row r="58" spans="3:8">
       <c r="C58" s="15">
         <v>53</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+    <row r="59" spans="3:8">
       <c r="C59" s="15">
         <v>54</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H59" s="16"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+    <row r="60" spans="3:8">
       <c r="C60" s="15">
         <v>55</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+    <row r="61" spans="3:8">
       <c r="C61" s="15">
         <v>56</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+    <row r="62" spans="3:8">
       <c r="C62" s="8">
         <v>57</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+    <row r="63" spans="3:8">
       <c r="C63" s="8">
         <v>58</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
       <c r="C64" s="8">
         <v>59</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
       <c r="C65" s="8">
         <v>60</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
       <c r="C66" s="8">
         <v>61</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
       <c r="C67" s="8">
         <v>62</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8">
       <c r="C68" s="8">
         <v>63</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
       <c r="C69" s="15">
         <v>64</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H69" s="16"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+    <row r="70" spans="3:8">
       <c r="C70" s="15">
         <v>65</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H70" s="16"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+    <row r="71" spans="3:8">
       <c r="C71" s="15">
         <v>66</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H71" s="16"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+    <row r="72" spans="3:8">
       <c r="C72" s="15">
         <v>67</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+    <row r="73" spans="3:8">
       <c r="C73" s="15">
         <v>68</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+    <row r="74" spans="3:8">
       <c r="C74" s="15">
         <v>69</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H74" s="16"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+    <row r="75" spans="3:8">
       <c r="C75" s="8">
         <v>70</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
       <c r="C76" s="15">
         <v>71</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+    <row r="77" spans="3:8">
       <c r="C77" s="15">
         <v>72</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+    <row r="78" spans="3:8">
       <c r="C78" s="15">
         <v>73</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H78" s="16"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+    <row r="79" spans="3:8">
       <c r="C79" s="8">
         <v>74</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
       <c r="C80" s="8">
         <v>75</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
       <c r="C81" s="15">
         <v>76</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H81" s="16"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+    <row r="82" spans="3:8">
       <c r="C82" s="15">
         <v>77</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H82" s="16"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+    <row r="83" spans="3:8">
       <c r="C83" s="8">
         <v>78</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
       <c r="C84" s="8">
         <v>79</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>220</v>
-      </c>
       <c r="G84" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
       <c r="C85" s="8">
         <v>80</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
       <c r="C86" s="8">
         <v>81</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
       <c r="C87" s="8">
         <v>82</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8">
       <c r="C88" s="15">
         <v>83</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+    <row r="89" spans="3:8">
       <c r="C89" s="15">
         <v>84</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E89" s="16"/>
       <c r="F89" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+    <row r="90" spans="3:8">
       <c r="C90" s="19"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
@@ -5075,331 +5565,299 @@
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+    <row r="91" spans="3:8">
       <c r="C91" s="8">
         <v>85</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8">
       <c r="C92" s="8">
         <v>86</v>
       </c>
       <c r="D92" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H92" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+    </row>
+    <row r="93" spans="3:8">
       <c r="C93" s="8">
         <v>87</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8">
       <c r="C94" s="8">
         <v>88</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F94" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G94" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>248</v>
-      </c>
       <c r="H94" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8">
       <c r="C95" s="8">
         <v>89</v>
       </c>
       <c r="D95" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F95" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>249</v>
-      </c>
       <c r="G95" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8">
       <c r="C96" s="8">
         <v>90</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8">
       <c r="C97" s="8">
         <v>91</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8">
       <c r="C98" s="8">
         <v>92</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8">
       <c r="C99" s="15">
         <v>93</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H99" s="16"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+    <row r="100" spans="3:8">
       <c r="C100" s="8">
         <v>94</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8">
       <c r="C101" s="8">
         <v>95</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8">
       <c r="C102" s="8">
         <v>96</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8">
       <c r="C103" s="15">
         <v>97</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8">
       <c r="C104" s="8">
         <v>98</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8">
       <c r="C105" s="8">
         <v>99</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8">
       <c r="C106" s="21"/>
       <c r="D106" s="22"/>
       <c r="E106" s="22"/>
@@ -5407,231 +5865,207 @@
       <c r="G106" s="22"/>
       <c r="H106" s="22"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+    <row r="107" spans="3:8">
       <c r="C107" s="8">
         <v>100</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F107" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G107" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G107" s="9" t="s">
-        <v>284</v>
-      </c>
       <c r="H107" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8">
       <c r="C108" s="8">
         <v>101</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G108" s="9"/>
       <c r="H108" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8">
       <c r="C109" s="8">
         <v>102</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8">
       <c r="C110" s="8">
         <v>103</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G110" s="9"/>
       <c r="H110" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8">
       <c r="C111" s="8">
         <v>104</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G111" s="9"/>
       <c r="H111" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8">
       <c r="C112" s="8">
         <v>105</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G112" s="9"/>
       <c r="H112" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8">
       <c r="C113" s="8">
         <v>106</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G113" s="9"/>
       <c r="H113" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8">
       <c r="C114" s="8">
         <v>107</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G114" s="9"/>
       <c r="H114" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8">
       <c r="C115" s="8">
         <v>108</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8">
       <c r="C116" s="8">
         <v>109</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G116" s="9"/>
       <c r="H116" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8">
       <c r="C117" s="8">
         <v>110</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8">
       <c r="C118" s="23"/>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
@@ -5639,163 +6073,147 @@
       <c r="G118" s="24"/>
       <c r="H118" s="24"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+    <row r="119" spans="3:8">
       <c r="C119" s="8">
         <v>111</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8">
       <c r="C120" s="8">
         <v>112</v>
       </c>
       <c r="D120" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H120" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+    </row>
+    <row r="121" spans="3:8">
       <c r="C121" s="8">
         <v>113</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8">
       <c r="C122" s="8">
         <v>114</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8">
       <c r="C123" s="8">
         <v>115</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8">
       <c r="C124" s="8">
         <v>116</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8">
       <c r="C125" s="8">
         <v>117</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8">
       <c r="C126" s="17"/>
       <c r="D126" s="18"/>
       <c r="E126" s="18"/>
@@ -5803,73 +6221,65 @@
       <c r="G126" s="25"/>
       <c r="H126" s="18"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+    <row r="127" spans="3:8">
       <c r="C127" s="8">
         <v>118</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8">
       <c r="C128" s="8">
         <v>119</v>
       </c>
       <c r="D128" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H128" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+    </row>
+    <row r="129" spans="3:8">
       <c r="C129" s="8">
         <v>120</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8">
       <c r="C130" s="19"/>
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
@@ -5877,3866 +6287,3494 @@
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+    <row r="131" spans="3:8">
       <c r="C131" s="8">
         <v>121</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F131" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H131" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="G131" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+    </row>
+    <row r="132" spans="3:8">
       <c r="C132" s="8">
         <v>122</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8">
       <c r="C133" s="8">
         <v>123</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8">
       <c r="C134" s="8">
         <v>124</v>
       </c>
       <c r="D134" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H134" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E134" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+    </row>
+    <row r="135" spans="3:8">
       <c r="C135" s="8">
         <v>125</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8">
       <c r="C136" s="8">
         <v>126</v>
       </c>
       <c r="D136" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="H136" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E136" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+    </row>
+    <row r="137" spans="3:8">
       <c r="C137" s="8">
         <v>127</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8">
       <c r="C138" s="8">
         <v>128</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8">
       <c r="C139" s="8">
         <v>129</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H139" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="H139" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+    </row>
+    <row r="140" spans="3:8">
       <c r="C140" s="8">
         <v>130</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8">
       <c r="C141" s="8">
         <v>131</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8">
       <c r="C142" s="15">
         <v>132</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H142" s="16"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+    <row r="143" spans="3:8">
       <c r="C143" s="8">
         <v>133</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F143" s="9"/>
       <c r="G143" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8">
       <c r="C144" s="8">
         <v>134</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8">
       <c r="C145" s="8">
         <v>135</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8">
       <c r="C146" s="8">
         <v>136</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8">
       <c r="C147" s="8">
         <v>137</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8">
       <c r="C148" s="8">
         <v>138</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8">
       <c r="C149" s="8">
         <v>139</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8">
       <c r="C150" s="8">
         <v>140</v>
       </c>
       <c r="D150" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="H150" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E150" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+    </row>
+    <row r="151" spans="3:8">
       <c r="C151" s="8">
         <v>141</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8">
       <c r="C152" s="8">
         <v>142</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8">
       <c r="C153" s="8">
         <v>143</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8">
       <c r="C154" s="8">
         <v>144</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8">
       <c r="C155" s="8">
         <v>145</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8">
       <c r="C156" s="8">
         <v>146</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8">
       <c r="C157" s="8">
         <v>147</v>
       </c>
       <c r="D157" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="H157" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="E157" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+    </row>
+    <row r="158" spans="3:8">
       <c r="C158" s="8">
         <v>148</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8">
       <c r="C159" s="15">
         <v>149</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F159" s="16"/>
       <c r="G159" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H159" s="16"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+    <row r="160" spans="3:8">
       <c r="C160" s="15">
         <v>150</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H160" s="16"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+    <row r="161" spans="3:8">
       <c r="C161" s="8">
         <v>151</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8">
       <c r="C162" s="15">
         <v>152</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
       <c r="G162" s="16" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8">
       <c r="C163" s="15">
         <v>153</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E163" s="16"/>
       <c r="F163" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H163" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8">
       <c r="C164" s="8">
         <v>154</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8">
       <c r="C165" s="15">
         <v>155</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E165" s="16"/>
       <c r="F165" s="16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8">
       <c r="C166" s="8">
         <v>156</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8">
       <c r="C167" s="8">
         <v>157</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8">
       <c r="C168" s="8">
         <v>158</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8">
       <c r="C169" s="8">
         <v>159</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8">
       <c r="C170" s="8">
         <v>160</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8">
       <c r="C171" s="8">
         <v>161</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8">
       <c r="C172" s="15">
         <v>162</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E172" s="16"/>
       <c r="F172" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" spans="3:8">
       <c r="C173" s="8">
         <v>163</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8">
       <c r="C174" s="8">
         <v>164</v>
       </c>
       <c r="D174" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="H174" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="E174" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="F174" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="G174" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+    </row>
+    <row r="175" spans="3:8">
       <c r="C175" s="15">
         <v>165</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8">
       <c r="C176" s="8">
         <v>166</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+    <row r="177" spans="3:8">
       <c r="C177" s="8">
         <v>167</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8">
       <c r="C178" s="8">
         <v>168</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8">
       <c r="C179" s="8">
         <v>169</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8">
       <c r="C180" s="8">
         <v>170</v>
       </c>
       <c r="D180" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="H180" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="E180" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="F180" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="H180" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+    </row>
+    <row r="181" spans="3:8">
       <c r="C181" s="8">
         <v>171</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="182" ht="33" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="182" ht="33" customHeight="1" spans="3:8">
       <c r="C182" s="8">
         <v>172</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8">
       <c r="C183" s="8">
         <v>173</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8">
       <c r="C184" s="8">
         <v>174</v>
       </c>
       <c r="D184" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="H184" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="E184" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="F184" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="H184" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+    </row>
+    <row r="185" spans="3:8">
       <c r="C185" s="8">
         <v>175</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8">
       <c r="C186" s="8">
         <v>176</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8">
       <c r="C187" s="8">
         <v>177</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G187" s="9"/>
       <c r="H187" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8">
       <c r="C188" s="8">
         <v>178</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8">
       <c r="C189" s="8">
         <v>179</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8">
       <c r="C190" s="8">
         <v>180</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8">
       <c r="C191" s="8">
         <v>181</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8">
       <c r="C192" s="8">
         <v>182</v>
       </c>
       <c r="D192" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="H192" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="E192" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="F192" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="H192" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+    </row>
+    <row r="193" spans="3:8">
       <c r="C193" s="8">
         <v>183</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8">
       <c r="C194" s="8">
         <v>184</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8">
       <c r="C195" s="8">
         <v>185</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8">
       <c r="C196" s="8">
         <v>186</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8">
       <c r="C197" s="8">
         <v>187</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8">
       <c r="C198" s="8">
         <v>188</v>
       </c>
       <c r="D198" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F198" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="H198" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="E198" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="F198" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="G198" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="H198" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+    </row>
+    <row r="199" spans="3:8">
       <c r="C199" s="8">
         <v>189</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8">
       <c r="C200" s="8">
         <v>190</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8">
       <c r="C201" s="8">
         <v>191</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8">
       <c r="C202" s="8">
         <v>192</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8">
       <c r="C203" s="8">
         <v>193</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8">
       <c r="C204" s="8">
         <v>194</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H204" s="9"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+    <row r="205" spans="3:8">
       <c r="C205" s="8">
         <v>195</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8">
       <c r="C206" s="8">
         <v>196</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8">
       <c r="C207" s="8">
         <v>197</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="208" spans="3:8">
       <c r="C208" s="8">
         <v>198</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8">
       <c r="C209" s="8">
         <v>199</v>
       </c>
       <c r="D209" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="H209" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="E209" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="F209" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="G209" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="H209" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+    </row>
+    <row r="210" spans="3:8">
       <c r="C210" s="8">
         <v>200</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8">
       <c r="C211" s="8">
         <v>201</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H211" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="212" spans="3:8">
       <c r="C212" s="8">
         <v>202</v>
       </c>
       <c r="D212" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="H212" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="E212" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="F212" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="G212" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="H212" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+    </row>
+    <row r="213" spans="3:8">
       <c r="C213" s="8">
         <v>203</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E213" s="16"/>
       <c r="F213" s="16" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H213" s="26" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8">
       <c r="C214" s="8">
         <v>204</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E214" s="16"/>
       <c r="F214" s="16" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H214" s="26" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8">
       <c r="C215" s="8">
         <v>205</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H215" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8">
       <c r="C216" s="8">
         <v>206</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H216" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8">
       <c r="C217" s="8">
         <v>207</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H217" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="218" spans="3:8">
       <c r="C218" s="8">
         <v>208</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H218" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="219" spans="3:8">
       <c r="C219" s="8">
         <v>209</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H219" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="220" spans="3:8">
       <c r="C220" s="8">
         <v>210</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H220" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="221" spans="3:8">
       <c r="C221" s="8">
         <v>211</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8">
       <c r="C222" s="8">
         <v>212</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="223" spans="3:8">
       <c r="C223" s="8">
         <v>213</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F223" s="9"/>
       <c r="G223" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="224" spans="3:8">
       <c r="C224" s="8">
         <v>214</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F224" s="9"/>
       <c r="G224" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8">
       <c r="C225" s="8">
         <v>215</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H225" s="9"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+    <row r="226" spans="3:8">
       <c r="C226" s="8">
         <v>216</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H226" s="9"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+    <row r="227" spans="3:8">
       <c r="C227" s="8">
         <v>217</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H227" s="9"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
+    <row r="228" spans="3:8">
       <c r="C228" s="8">
         <v>218</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8">
       <c r="C229" s="8">
         <v>219</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H229" s="9" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8">
       <c r="C230" s="8">
         <v>220</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F230" s="16" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G230" s="16" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H230" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="231" spans="3:8">
       <c r="C231" s="8">
         <v>221</v>
       </c>
       <c r="D231" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="E231" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="F231" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="G231" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="E231" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="F231" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>662</v>
-      </c>
       <c r="H231" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="232" spans="3:8">
       <c r="C232" s="8">
         <v>222</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="233" spans="3:8">
       <c r="C233" s="8">
         <v>223</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H233" s="9"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
+    <row r="234" spans="3:8">
       <c r="C234" s="8">
         <v>224</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H234" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="235" spans="3:8">
       <c r="C235" s="15">
         <v>225</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F235" s="16" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G235" s="16"/>
       <c r="H235" s="16" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="236" spans="3:8">
       <c r="C236" s="8">
         <v>226</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H236" s="9"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
+    <row r="237" spans="3:8">
       <c r="C237" s="8">
         <v>227</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
       <c r="H237" s="9"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
+    <row r="238" spans="3:8">
       <c r="C238" s="27">
         <v>228</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E238" s="28"/>
       <c r="F238" s="28" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G238" s="28" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H238" s="28"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
+    <row r="239" spans="3:8">
       <c r="C239" s="27">
         <v>229</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E239" s="28"/>
       <c r="F239" s="28" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G239" s="28"/>
       <c r="H239" s="28"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
+    <row r="240" spans="3:8">
       <c r="C240" s="8">
         <v>230</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F240" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="G240" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="G240" s="9" t="s">
-        <v>687</v>
-      </c>
       <c r="H240" s="9" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="241" spans="3:8">
       <c r="C241" s="8">
         <v>231</v>
       </c>
       <c r="D241" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="G241" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H241" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="E241" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="F241" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="G241" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="H241" s="9" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
+    </row>
+    <row r="242" spans="3:8">
       <c r="C242" s="15">
         <v>232</v>
       </c>
       <c r="D242" s="16" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E242" s="16"/>
       <c r="F242" s="16" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G242" s="16" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H242" s="16"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
+    <row r="243" spans="3:8">
       <c r="C243" s="15">
         <v>233</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E243" s="16"/>
       <c r="F243" s="16"/>
       <c r="G243" s="16" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H243" s="16"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
+    <row r="244" spans="3:8">
       <c r="C244" s="8">
         <v>234</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G244" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H244" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8">
       <c r="C245" s="8">
         <v>235</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G245" s="9" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H245" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="246" spans="3:8">
       <c r="C246" s="8">
         <v>236</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H246" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="247" spans="3:8">
       <c r="C247" s="15">
         <v>237</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E247" s="16"/>
       <c r="F247" s="16" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G247" s="16" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H247" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="248" spans="3:8">
       <c r="C248" s="15">
         <v>238</v>
       </c>
       <c r="D248" s="16" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E248" s="16"/>
       <c r="F248" s="16" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G248" s="16"/>
       <c r="H248" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="249" spans="3:8">
       <c r="C249" s="8">
         <v>239</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="250" spans="3:8">
       <c r="C250" s="8">
         <v>240</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G250" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H250" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="251" spans="3:8">
       <c r="C251" s="8">
         <v>241</v>
       </c>
       <c r="D251" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="G251" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="H251" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="E251" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="F251" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="G251" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="H251" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
+    </row>
+    <row r="252" spans="3:8">
       <c r="C252" s="8">
         <v>242</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H252" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="253" spans="3:8">
       <c r="C253" s="15">
         <v>243</v>
       </c>
       <c r="D253" s="16" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F253" s="16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G253" s="16" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H253" s="16" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="254" spans="3:8">
       <c r="C254" s="15">
         <v>244</v>
       </c>
       <c r="D254" s="16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F254" s="16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G254" s="16" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H254" s="16" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="255" spans="3:8">
       <c r="C255" s="15">
         <v>245</v>
       </c>
       <c r="D255" s="16" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E255" s="16"/>
       <c r="F255" s="16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G255" s="16" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H255" s="16" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="256" spans="3:8">
       <c r="C256" s="8">
         <v>246</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G256" s="9" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H256" s="9" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="257" spans="3:8">
       <c r="C257" s="8">
         <v>247</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F257" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="H257" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="G257" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="H257" s="9" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
+    </row>
+    <row r="258" spans="3:8">
       <c r="C258" s="8">
         <v>248</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F258" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="H258" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="G258" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="H258" s="9" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
+    </row>
+    <row r="259" spans="3:8">
       <c r="C259" s="8">
         <v>249</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G259" s="9"/>
       <c r="H259" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="260" spans="3:8">
       <c r="C260" s="8">
         <v>250</v>
       </c>
       <c r="D260" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="E260" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="F260" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="E260" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="F260" s="9" t="s">
-        <v>745</v>
-      </c>
       <c r="G260" s="9" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H260" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="261" spans="3:8">
       <c r="C261" s="8">
         <v>251</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F261" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="262" spans="3:8">
       <c r="C262" s="15">
         <v>252</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F262" s="16" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G262" s="16" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H262" s="16" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="263" spans="3:8">
       <c r="C263" s="8">
         <v>253</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="3:8">
       <c r="C264" s="8">
         <v>254</v>
       </c>
       <c r="D264" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="G264" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="E264" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="F264" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="G264" s="9" t="s">
-        <v>757</v>
-      </c>
       <c r="H264" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="3:8">
       <c r="C265" s="8">
         <v>255</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F265" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G265" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H265" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="3:8">
       <c r="C266" s="8">
         <v>256</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H266" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="267" spans="3:8">
       <c r="C267" s="8">
         <v>257</v>
       </c>
       <c r="D267" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="H267" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="E267" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="F267" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="G267" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="H267" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
+    </row>
+    <row r="268" spans="3:8">
       <c r="C268" s="8">
         <v>258</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G268" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H268" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="269" spans="3:8">
       <c r="C269" s="8">
         <v>259</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H269" s="9" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="270" spans="3:8">
       <c r="C270" s="15">
         <v>260</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F270" s="16" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G270" s="16" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H270" s="16"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
+    <row r="271" spans="3:8">
       <c r="C271" s="8">
         <v>261</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F271" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H271" s="9" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="272" spans="3:8">
       <c r="C272" s="15">
         <v>262</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E272" s="16"/>
       <c r="F272" s="16" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G272" s="16" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H272" s="16"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
+    <row r="273" spans="3:8">
       <c r="C273" s="8">
         <v>263</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F273" s="9"/>
       <c r="G273" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H273" s="9" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="274" spans="3:8">
       <c r="C274" s="15">
         <v>264</v>
       </c>
       <c r="D274" s="16" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F274" s="16"/>
       <c r="G274" s="16" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H274" s="16"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
+    <row r="275" spans="3:8">
       <c r="C275" s="15">
         <v>265</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F275" s="16"/>
       <c r="G275" s="16" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H275" s="16"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
+    <row r="276" spans="3:8">
       <c r="C276" s="8">
         <v>266</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F276" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="G276" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="G276" s="9" t="s">
-        <v>791</v>
-      </c>
       <c r="H276" s="9" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8">
       <c r="C277" s="8">
         <v>267</v>
       </c>
       <c r="D277" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="F277" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="G277" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="H277" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="E277" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="F277" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="G277" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="H277" s="9" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
+    </row>
+    <row r="278" spans="3:8">
       <c r="C278" s="8">
         <v>268</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F278" s="9"/>
       <c r="G278" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="H278" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="H278" s="9" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
+    </row>
+    <row r="279" spans="3:8">
       <c r="C279" s="8">
         <v>269</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F279" s="9"/>
       <c r="G279" s="9" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H279" s="9" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="280" spans="3:8">
       <c r="C280" s="8">
         <v>270</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H280" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="281" spans="3:8">
       <c r="C281" s="8">
         <v>271</v>
       </c>
       <c r="D281" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="F281" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="H281" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="E281" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="F281" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="G281" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="H281" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
+    </row>
+    <row r="282" spans="3:8">
       <c r="C282" s="8">
         <v>272</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G282" s="9"/>
       <c r="H282" s="9" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="283" spans="3:8">
       <c r="C283" s="8">
         <v>273</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F283" s="9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G283" s="9"/>
       <c r="H283" s="9" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="284" spans="3:8">
       <c r="C284" s="15">
         <v>274</v>
       </c>
       <c r="D284" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E284" s="16"/>
       <c r="F284" s="16"/>
       <c r="G284" s="16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H284" s="16"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
+    <row r="285" spans="3:8">
       <c r="C285" s="8">
         <v>275</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F285" s="9"/>
       <c r="G285" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H285" s="9" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="286" spans="3:8">
       <c r="C286" s="8">
         <v>276</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F286" s="9"/>
       <c r="G286" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H286" s="9" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="287" spans="3:8">
       <c r="C287" s="8">
         <v>277</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E287" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G287" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="288" spans="3:8">
       <c r="C288" s="8">
         <v>278</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H288" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="289" spans="3:8">
       <c r="C289" s="8">
         <v>279</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F289" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G289" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H289" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="290" spans="3:8">
       <c r="C290" s="8">
         <v>280</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H290" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="291" spans="3:8">
       <c r="C291" s="8">
         <v>281</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F291" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H291" s="9" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="292" spans="3:8">
       <c r="C292" s="15">
         <v>282</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F292" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G292" s="16"/>
       <c r="H292" s="16" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="293" spans="3:8">
       <c r="C293" s="15">
         <v>283</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F293" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G293" s="16"/>
       <c r="H293" s="16" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="294" spans="3:8">
       <c r="C294" s="15">
         <v>284</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F294" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G294" s="16"/>
       <c r="H294" s="16" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="295" spans="3:8">
       <c r="C295" s="15">
         <v>285</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E295" s="16"/>
       <c r="F295" s="16" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G295" s="16" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H295" s="16"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
+    <row r="296" spans="3:8">
       <c r="C296" s="15">
         <v>286</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E296" s="16"/>
       <c r="F296" s="16" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G296" s="16"/>
       <c r="H296" s="16"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
+    <row r="297" spans="3:8">
       <c r="C297" s="15">
         <v>287</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E297" s="16"/>
       <c r="F297" s="16" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G297" s="16"/>
       <c r="H297" s="16"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
+    <row r="298" spans="3:8">
       <c r="C298" s="8">
         <v>288</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E298" s="9" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F298" s="9" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H298" s="9" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="299" spans="3:8">
       <c r="C299" s="8">
         <v>289</v>
       </c>
       <c r="D299" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="F299" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="G299" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="H299" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="E299" s="9" t="s">
-        <v>857</v>
-      </c>
-      <c r="F299" s="9" t="s">
-        <v>858</v>
-      </c>
-      <c r="G299" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="H299" s="9" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
+    </row>
+    <row r="300" spans="3:8">
       <c r="C300" s="8">
         <v>290</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G300" s="9" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H300" s="9" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="301" spans="3:8">
       <c r="C301" s="8">
         <v>291</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F301" s="9"/>
       <c r="G301" s="9" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H301" s="9" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="302" spans="3:8">
       <c r="C302" s="15">
         <v>292</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E302" s="16"/>
       <c r="F302" s="16"/>
       <c r="G302" s="16" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H302" s="16" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="303" spans="3:8">
       <c r="C303" s="8">
         <v>293</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E303" s="9" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F303" s="9" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G303" s="9" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H303" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="304" spans="3:8">
       <c r="C304" s="8">
         <v>294</v>
       </c>
       <c r="D304" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="E304" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="F304" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="G304" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="H304" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="E304" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="F304" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="G304" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="H304" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
+    </row>
+    <row r="305" spans="3:8">
       <c r="C305" s="8">
         <v>295</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F305" s="9" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H305" s="9" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="306" spans="3:8">
       <c r="C306" s="8">
         <v>296</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F306" s="9" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G306" s="9" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H306" s="9" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="307" spans="3:8">
       <c r="C307" s="8">
         <v>297</v>
       </c>
       <c r="D307" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="F307" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="G307" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="H307" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="E307" s="9" t="s">
-        <v>890</v>
-      </c>
-      <c r="F307" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="G307" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="H307" s="9" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
+    </row>
+    <row r="308" spans="3:8">
       <c r="C308" s="15">
         <v>298</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F308" s="16"/>
       <c r="G308" s="16" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H308" s="16"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
+    <row r="309" spans="3:8">
       <c r="C309" s="8">
         <v>299</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G309" s="9" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H309" s="9" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="310" spans="3:8">
       <c r="C310" s="8">
         <v>300</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G310" s="9" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H310" s="9" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="311" spans="3:8">
       <c r="C311" s="8">
         <v>301</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G311" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H311" s="9" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="312" spans="3:8">
       <c r="C312" s="8">
         <v>302</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G312" s="9" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H312" s="9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="313" spans="3:8">
       <c r="C313" s="8">
         <v>303</v>
       </c>
       <c r="D313" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="F313" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="H313" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="E313" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="F313" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="G313" s="9" t="s">
-        <v>914</v>
-      </c>
-      <c r="H313" s="9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
+    </row>
+    <row r="314" spans="3:8">
       <c r="C314" s="8">
         <v>304</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G314" s="9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H314" s="9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="315" ht="33" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="315" ht="33" customHeight="1" spans="3:8">
       <c r="C315" s="8">
         <v>305</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E315" s="9" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G315" s="12" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H315" s="9" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="316" spans="3:8">
       <c r="C316" s="8">
         <v>306</v>
       </c>
       <c r="D316" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="E316" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="F316" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="G316" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="H316" s="9" t="s">
         <v>923</v>
-      </c>
-      <c r="E316" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="F316" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="G316" s="9" t="s">
-        <v>925</v>
-      </c>
-      <c r="H316" s="9" t="s">
-        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -9744,6 +9782,7 @@
     <mergeCell ref="E59:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>